--- a/Code/Results/Cases/Case_3_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_43/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.10698766680752</v>
+        <v>21.10698766680756</v>
       </c>
       <c r="C2">
-        <v>11.04552329451239</v>
+        <v>11.04552329451221</v>
       </c>
       <c r="D2">
-        <v>3.460537309393893</v>
+        <v>3.460537309393772</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.95551621291197</v>
+        <v>36.95551621291215</v>
       </c>
       <c r="G2">
-        <v>27.73498997934499</v>
+        <v>27.73498997934509</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12.1276947936483</v>
+        <v>12.12769479364828</v>
       </c>
       <c r="J2">
-        <v>17.41323929518281</v>
+        <v>17.41323929518282</v>
       </c>
       <c r="K2">
-        <v>17.03535915213891</v>
+        <v>17.0353591521389</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.60150944321003</v>
+        <v>19.60150944321005</v>
       </c>
       <c r="C3">
-        <v>10.36677838774157</v>
+        <v>10.36677838774142</v>
       </c>
       <c r="D3">
-        <v>3.446302071900868</v>
+        <v>3.446302071900805</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.08091314790279</v>
+        <v>35.08091314790269</v>
       </c>
       <c r="G3">
-        <v>26.50420341563475</v>
+        <v>26.50420341563467</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11.42537987838416</v>
+        <v>11.42537987838412</v>
       </c>
       <c r="J3">
-        <v>16.22550227500984</v>
+        <v>16.22550227500981</v>
       </c>
       <c r="K3">
-        <v>15.80416996698281</v>
+        <v>15.80416996698276</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.63029436052447</v>
+        <v>18.63029436052443</v>
       </c>
       <c r="C4">
-        <v>9.930624780419318</v>
+        <v>9.930624780419487</v>
       </c>
       <c r="D4">
-        <v>3.436771022985378</v>
+        <v>3.436771022985377</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.92286097025273</v>
+        <v>33.92286097025275</v>
       </c>
       <c r="G4">
-        <v>25.75209033696805</v>
+        <v>25.75209033696806</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.98765828055899</v>
+        <v>10.98765828055903</v>
       </c>
       <c r="J4">
         <v>15.45977329893874</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.22252950182358</v>
+        <v>18.22252950182355</v>
       </c>
       <c r="C5">
-        <v>9.747972025724801</v>
+        <v>9.747972025724795</v>
       </c>
       <c r="D5">
-        <v>3.432696064049985</v>
+        <v>3.432696064050123</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>10.80774977597874</v>
       </c>
       <c r="J5">
-        <v>15.13842162541905</v>
+        <v>15.138421625419</v>
       </c>
       <c r="K5">
-        <v>14.68144719541429</v>
+        <v>14.6814471954143</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.15409068561505</v>
+        <v>18.15409068561497</v>
       </c>
       <c r="C6">
-        <v>9.717344961654879</v>
+        <v>9.71734496165478</v>
       </c>
       <c r="D6">
-        <v>3.432008106664529</v>
+        <v>3.432008106664401</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.37086285814642</v>
+        <v>33.37086285814659</v>
       </c>
       <c r="G6">
-        <v>25.39606675014958</v>
+        <v>25.39606675014971</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.77778737308161</v>
+        <v>10.77778737308163</v>
       </c>
       <c r="J6">
-        <v>15.0844951444468</v>
+        <v>15.08449514444668</v>
       </c>
       <c r="K6">
-        <v>14.62584669040539</v>
+        <v>14.62584669040536</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.62484389954171</v>
+        <v>18.62484389954165</v>
       </c>
       <c r="C7">
-        <v>9.928181405959853</v>
+        <v>9.928181405959798</v>
       </c>
       <c r="D7">
-        <v>3.436716829894663</v>
+        <v>3.436716829894797</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.91648266085646</v>
+        <v>33.91648266085648</v>
       </c>
       <c r="G7">
-        <v>25.74796699511306</v>
+        <v>25.7479669951131</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.98523801188801</v>
+        <v>10.98523801188798</v>
       </c>
       <c r="J7">
-        <v>15.45547731727942</v>
+        <v>15.45547731727934</v>
       </c>
       <c r="K7">
-        <v>15.00851928007365</v>
+        <v>15.00851928007369</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.59749221978645</v>
+        <v>20.5974922197864</v>
       </c>
       <c r="C8">
-        <v>10.81549039474214</v>
+        <v>10.8154903947423</v>
       </c>
       <c r="D8">
-        <v>3.455797908515434</v>
+        <v>3.4557979085155</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.31079324169913</v>
+        <v>36.31079324169915</v>
       </c>
       <c r="G8">
-        <v>27.30997114268617</v>
+        <v>27.30997114268618</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11.88693007317996</v>
+        <v>11.88693007318</v>
       </c>
       <c r="J8">
-        <v>17.01118167387293</v>
+        <v>17.01118167387296</v>
       </c>
       <c r="K8">
-        <v>16.61803096284852</v>
+        <v>16.61803096284851</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.10433173398791</v>
+        <v>24.10433173398794</v>
       </c>
       <c r="C9">
-        <v>12.40422902862035</v>
+        <v>12.40422902862023</v>
       </c>
       <c r="D9">
-        <v>3.486568172983743</v>
+        <v>3.48656817298366</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.94065654540933</v>
+        <v>40.94065654540955</v>
       </c>
       <c r="G9">
-        <v>30.39613596529713</v>
+        <v>30.3961359652973</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.84642921338142</v>
+        <v>13.84642921338151</v>
       </c>
       <c r="J9">
-        <v>19.78005531541807</v>
+        <v>19.78005531541811</v>
       </c>
       <c r="K9">
-        <v>19.5050130881835</v>
+        <v>19.50501308818353</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.47608123211017</v>
+        <v>26.47608123211016</v>
       </c>
       <c r="C10">
-        <v>13.48433714015735</v>
+        <v>13.48433714015744</v>
       </c>
       <c r="D10">
-        <v>3.504555133204608</v>
+        <v>3.504555133204603</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>44.29912224169303</v>
+        <v>44.29912224169306</v>
       </c>
       <c r="G10">
-        <v>32.67608663475134</v>
+        <v>32.67608663475136</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.29877071553783</v>
+        <v>15.29877071553785</v>
       </c>
       <c r="J10">
         <v>21.65422518894788</v>
       </c>
       <c r="K10">
-        <v>21.47834084195405</v>
+        <v>21.47834084195408</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.51457616614912</v>
+        <v>27.5145761661491</v>
       </c>
       <c r="C11">
-        <v>13.95830018449237</v>
+        <v>13.95830018449252</v>
       </c>
       <c r="D11">
-        <v>3.511591442430245</v>
+        <v>3.511591442430299</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.81978408982651</v>
+        <v>45.81978408982661</v>
       </c>
       <c r="G11">
-        <v>33.71753846383108</v>
+        <v>33.71753846383115</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.94145380570588</v>
+        <v>15.94145380570587</v>
       </c>
       <c r="J11">
-        <v>22.47511437967991</v>
+        <v>22.47511437967992</v>
       </c>
       <c r="K11">
-        <v>22.34822758807919</v>
+        <v>22.34822758807917</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.90239395765977</v>
+        <v>27.90239395765978</v>
       </c>
       <c r="C12">
-        <v>14.13543371696811</v>
+        <v>14.13543371696827</v>
       </c>
       <c r="D12">
-        <v>3.514077273086798</v>
+        <v>3.514077273086994</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>46.3949721955504</v>
+        <v>46.39497219555026</v>
       </c>
       <c r="G12">
-        <v>34.1127874070575</v>
+        <v>34.11278740705742</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.18257035506242</v>
+        <v>16.18257035506237</v>
       </c>
       <c r="J12">
-        <v>22.78170306350369</v>
+        <v>22.78170306350371</v>
       </c>
       <c r="K12">
-        <v>22.67404766541303</v>
+        <v>22.67404766541305</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.819105775219</v>
+        <v>27.81910577521912</v>
       </c>
       <c r="C13">
-        <v>14.09738643297041</v>
+        <v>14.0973864329705</v>
       </c>
       <c r="D13">
-        <v>3.513550092452127</v>
+        <v>3.513550092452128</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -845,16 +845,16 @@
         <v>46.27111651885517</v>
       </c>
       <c r="G13">
-        <v>34.02761925310628</v>
+        <v>34.02761925310627</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.13073596027733</v>
+        <v>16.13073596027731</v>
       </c>
       <c r="J13">
-        <v>22.71585827136974</v>
+        <v>22.71585827136983</v>
       </c>
       <c r="K13">
         <v>22.6040288585509</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.54658881751759</v>
+        <v>27.54658881751756</v>
       </c>
       <c r="C14">
-        <v>13.97291910425427</v>
+        <v>13.97291910425425</v>
       </c>
       <c r="D14">
-        <v>3.511799620139636</v>
+        <v>3.511799620139703</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.86711554123092</v>
+        <v>45.86711554123097</v>
       </c>
       <c r="G14">
-        <v>33.75003642767265</v>
+        <v>33.7500364276727</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.96133368221162</v>
+        <v>15.96133368221163</v>
       </c>
       <c r="J14">
-        <v>22.50042126009052</v>
+        <v>22.5004212600905</v>
       </c>
       <c r="K14">
         <v>22.37510233607583</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.37896816531948</v>
+        <v>27.37896816531947</v>
       </c>
       <c r="C15">
-        <v>13.89637878931216</v>
+        <v>13.89637878931217</v>
       </c>
       <c r="D15">
-        <v>3.510703694015452</v>
+        <v>3.51070369401547</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.61958200875617</v>
+        <v>45.61958200875618</v>
       </c>
       <c r="G15">
         <v>33.58013235603497</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.85728717615463</v>
+        <v>15.85728717615466</v>
       </c>
       <c r="J15">
-        <v>22.3679138909313</v>
+        <v>22.36791389093132</v>
       </c>
       <c r="K15">
-        <v>22.23442423797132</v>
+        <v>22.23442423797135</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.40743065822905</v>
+        <v>26.407430658229</v>
       </c>
       <c r="C16">
-        <v>13.45302526566698</v>
+        <v>13.45302526566691</v>
       </c>
       <c r="D16">
-        <v>3.5040710885307</v>
+        <v>3.504071088530769</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>44.19962804208611</v>
+        <v>44.19962804208606</v>
       </c>
       <c r="G16">
-        <v>32.60813094815747</v>
+        <v>32.60813094815745</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.2564352159212</v>
+        <v>15.25643521592125</v>
       </c>
       <c r="J16">
-        <v>21.59996465288317</v>
+        <v>21.59996465288311</v>
       </c>
       <c r="K16">
-        <v>21.42096613098188</v>
+        <v>21.42096613098195</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.80132191268144</v>
+        <v>25.80132191268151</v>
       </c>
       <c r="C17">
-        <v>13.17669088602319</v>
+        <v>13.17669088602295</v>
       </c>
       <c r="D17">
-        <v>3.499699363633547</v>
+        <v>3.499699363633431</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>43.32692060253435</v>
+        <v>43.32692060253422</v>
       </c>
       <c r="G17">
-        <v>32.01308499132667</v>
+        <v>32.01308499132656</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.88344588055451</v>
+        <v>14.88344588055456</v>
       </c>
       <c r="J17">
-        <v>21.12093349663834</v>
+        <v>21.12093349663832</v>
       </c>
       <c r="K17">
-        <v>20.91509133806224</v>
+        <v>20.91509133806218</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.44887398965999</v>
+        <v>25.44887398966008</v>
       </c>
       <c r="C18">
-        <v>13.01610370051157</v>
+        <v>13.01610370051158</v>
       </c>
       <c r="D18">
-        <v>3.497077919192145</v>
+        <v>3.49707791919221</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.82426023728089</v>
+        <v>42.82426023728092</v>
       </c>
       <c r="G18">
-        <v>31.67121207131963</v>
+        <v>31.67121207131965</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.66719594440962</v>
+        <v>14.66719594440967</v>
       </c>
       <c r="J18">
-        <v>20.84240592072745</v>
+        <v>20.84240592072748</v>
       </c>
       <c r="K18">
-        <v>20.62148218063895</v>
+        <v>20.62148218063896</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.32887268216825</v>
+        <v>25.3288726821684</v>
       </c>
       <c r="C19">
-        <v>12.96144452314971</v>
+        <v>12.96144452314948</v>
       </c>
       <c r="D19">
-        <v>3.496172368769627</v>
+        <v>3.496172368769489</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.65393885685771</v>
+        <v>42.65393885685781</v>
       </c>
       <c r="G19">
-        <v>31.55551940148226</v>
+        <v>31.55551940148233</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.59367325169981</v>
+        <v>14.59367325169982</v>
       </c>
       <c r="J19">
-        <v>20.74757752387251</v>
+        <v>20.74757752387257</v>
       </c>
       <c r="K19">
-        <v>20.5216056364556</v>
+        <v>20.52160563645553</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.86623707085865</v>
+        <v>25.86623707085855</v>
       </c>
       <c r="C20">
-        <v>13.20627657878457</v>
+        <v>13.20627657878455</v>
       </c>
       <c r="D20">
-        <v>3.500175904133736</v>
+        <v>3.500175904133743</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>43.41989230586016</v>
+        <v>43.41989230586012</v>
       </c>
       <c r="G20">
-        <v>32.07638764709856</v>
+        <v>32.07638764709855</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.92332660171706</v>
+        <v>14.92332660171703</v>
       </c>
       <c r="J20">
-        <v>21.17223584515844</v>
+        <v>21.17223584515836</v>
       </c>
       <c r="K20">
-        <v>20.96921337335104</v>
+        <v>20.96921337335101</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.62677798716201</v>
+        <v>27.62677798716209</v>
       </c>
       <c r="C21">
-        <v>14.00954048189385</v>
+        <v>14.00954048189404</v>
       </c>
       <c r="D21">
-        <v>3.512318745176578</v>
+        <v>3.512318745176447</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.98579437455788</v>
+        <v>45.98579437455791</v>
       </c>
       <c r="G21">
-        <v>33.83154288320669</v>
+        <v>33.83154288320671</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>16.01114948755396</v>
       </c>
       <c r="J21">
-        <v>22.56381353444195</v>
+        <v>22.56381353444204</v>
       </c>
       <c r="K21">
-        <v>22.44243739985339</v>
+        <v>22.4424373998534</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.74591095309072</v>
+        <v>28.7459109530905</v>
       </c>
       <c r="C22">
-        <v>14.52093781550896</v>
+        <v>14.52093781550901</v>
       </c>
       <c r="D22">
-        <v>3.519205504317486</v>
+        <v>3.519205504317559</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>47.65924551444601</v>
+        <v>47.65924551444576</v>
       </c>
       <c r="G22">
-        <v>34.98393828686662</v>
+        <v>34.9839382868665</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.70916231680478</v>
+        <v>16.7091623168047</v>
       </c>
       <c r="J22">
-        <v>23.44860144436814</v>
+        <v>23.44860144436797</v>
       </c>
       <c r="K22">
-        <v>23.38460154351151</v>
+        <v>23.38460154351148</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.15135145443867</v>
+        <v>28.1513514544387</v>
       </c>
       <c r="C23">
-        <v>14.24917993752088</v>
+        <v>14.24917993752081</v>
       </c>
       <c r="D23">
-        <v>3.515631017930556</v>
+        <v>3.515631017930624</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.76624784828898</v>
+        <v>46.76624784828893</v>
       </c>
       <c r="G23">
-        <v>34.36828171940097</v>
+        <v>34.36828171940092</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>16.33767994364993</v>
       </c>
       <c r="J23">
-        <v>22.97852499133289</v>
+        <v>22.97852499133288</v>
       </c>
       <c r="K23">
-        <v>22.88349086765445</v>
+        <v>22.88349086765452</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.8369013770256</v>
+        <v>25.83690137702548</v>
       </c>
       <c r="C24">
-        <v>13.19290625220786</v>
+        <v>13.19290625220789</v>
       </c>
       <c r="D24">
-        <v>3.499960795803911</v>
+        <v>3.499960795804123</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>43.37786271894469</v>
+        <v>43.37786271894458</v>
       </c>
       <c r="G24">
-        <v>32.04776782742374</v>
+        <v>32.04776782742368</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.90530220048583</v>
+        <v>14.90530220048572</v>
       </c>
       <c r="J24">
-        <v>21.14905181218208</v>
+        <v>21.14905181218202</v>
       </c>
       <c r="K24">
         <v>20.94475347469817</v>
@@ -1292,25 +1292,25 @@
         <v>11.99017536459835</v>
       </c>
       <c r="D25">
-        <v>3.479010973080891</v>
+        <v>3.479010973081023</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.69597875103926</v>
+        <v>39.69597875103919</v>
       </c>
       <c r="G25">
-        <v>29.55923739207481</v>
+        <v>29.55923739207476</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.29366278975962</v>
+        <v>13.29366278975957</v>
       </c>
       <c r="J25">
-        <v>19.06005391695664</v>
+        <v>19.06005391695666</v>
       </c>
       <c r="K25">
         <v>18.75125299169948</v>

--- a/Code/Results/Cases/Case_3_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_43/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.10698766680756</v>
+        <v>21.10698766680752</v>
       </c>
       <c r="C2">
-        <v>11.04552329451221</v>
+        <v>11.04552329451239</v>
       </c>
       <c r="D2">
-        <v>3.460537309393772</v>
+        <v>3.460537309393893</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.95551621291215</v>
+        <v>36.95551621291197</v>
       </c>
       <c r="G2">
-        <v>27.73498997934509</v>
+        <v>27.73498997934499</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12.12769479364828</v>
+        <v>12.1276947936483</v>
       </c>
       <c r="J2">
-        <v>17.41323929518282</v>
+        <v>17.41323929518281</v>
       </c>
       <c r="K2">
-        <v>17.0353591521389</v>
+        <v>17.03535915213891</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.60150944321005</v>
+        <v>19.60150944321003</v>
       </c>
       <c r="C3">
-        <v>10.36677838774142</v>
+        <v>10.36677838774157</v>
       </c>
       <c r="D3">
-        <v>3.446302071900805</v>
+        <v>3.446302071900868</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.08091314790269</v>
+        <v>35.08091314790279</v>
       </c>
       <c r="G3">
-        <v>26.50420341563467</v>
+        <v>26.50420341563475</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11.42537987838412</v>
+        <v>11.42537987838416</v>
       </c>
       <c r="J3">
-        <v>16.22550227500981</v>
+        <v>16.22550227500984</v>
       </c>
       <c r="K3">
-        <v>15.80416996698276</v>
+        <v>15.80416996698281</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.63029436052443</v>
+        <v>18.63029436052447</v>
       </c>
       <c r="C4">
-        <v>9.930624780419487</v>
+        <v>9.930624780419318</v>
       </c>
       <c r="D4">
-        <v>3.436771022985377</v>
+        <v>3.436771022985378</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.92286097025275</v>
+        <v>33.92286097025273</v>
       </c>
       <c r="G4">
-        <v>25.75209033696806</v>
+        <v>25.75209033696805</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.98765828055903</v>
+        <v>10.98765828055899</v>
       </c>
       <c r="J4">
         <v>15.45977329893874</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.22252950182355</v>
+        <v>18.22252950182358</v>
       </c>
       <c r="C5">
-        <v>9.747972025724795</v>
+        <v>9.747972025724801</v>
       </c>
       <c r="D5">
-        <v>3.432696064050123</v>
+        <v>3.432696064049985</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>10.80774977597874</v>
       </c>
       <c r="J5">
-        <v>15.138421625419</v>
+        <v>15.13842162541905</v>
       </c>
       <c r="K5">
-        <v>14.6814471954143</v>
+        <v>14.68144719541429</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.15409068561497</v>
+        <v>18.15409068561505</v>
       </c>
       <c r="C6">
-        <v>9.71734496165478</v>
+        <v>9.717344961654879</v>
       </c>
       <c r="D6">
-        <v>3.432008106664401</v>
+        <v>3.432008106664529</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.37086285814659</v>
+        <v>33.37086285814642</v>
       </c>
       <c r="G6">
-        <v>25.39606675014971</v>
+        <v>25.39606675014958</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.77778737308163</v>
+        <v>10.77778737308161</v>
       </c>
       <c r="J6">
-        <v>15.08449514444668</v>
+        <v>15.0844951444468</v>
       </c>
       <c r="K6">
-        <v>14.62584669040536</v>
+        <v>14.62584669040539</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.62484389954165</v>
+        <v>18.62484389954171</v>
       </c>
       <c r="C7">
-        <v>9.928181405959798</v>
+        <v>9.928181405959853</v>
       </c>
       <c r="D7">
-        <v>3.436716829894797</v>
+        <v>3.436716829894663</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.91648266085648</v>
+        <v>33.91648266085646</v>
       </c>
       <c r="G7">
-        <v>25.7479669951131</v>
+        <v>25.74796699511306</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.98523801188798</v>
+        <v>10.98523801188801</v>
       </c>
       <c r="J7">
-        <v>15.45547731727934</v>
+        <v>15.45547731727942</v>
       </c>
       <c r="K7">
-        <v>15.00851928007369</v>
+        <v>15.00851928007365</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.5974922197864</v>
+        <v>20.59749221978645</v>
       </c>
       <c r="C8">
-        <v>10.8154903947423</v>
+        <v>10.81549039474214</v>
       </c>
       <c r="D8">
-        <v>3.4557979085155</v>
+        <v>3.455797908515434</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.31079324169915</v>
+        <v>36.31079324169913</v>
       </c>
       <c r="G8">
-        <v>27.30997114268618</v>
+        <v>27.30997114268617</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11.88693007318</v>
+        <v>11.88693007317996</v>
       </c>
       <c r="J8">
-        <v>17.01118167387296</v>
+        <v>17.01118167387293</v>
       </c>
       <c r="K8">
-        <v>16.61803096284851</v>
+        <v>16.61803096284852</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.10433173398794</v>
+        <v>24.10433173398791</v>
       </c>
       <c r="C9">
-        <v>12.40422902862023</v>
+        <v>12.40422902862035</v>
       </c>
       <c r="D9">
-        <v>3.48656817298366</v>
+        <v>3.486568172983743</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.94065654540955</v>
+        <v>40.94065654540933</v>
       </c>
       <c r="G9">
-        <v>30.3961359652973</v>
+        <v>30.39613596529713</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.84642921338151</v>
+        <v>13.84642921338142</v>
       </c>
       <c r="J9">
-        <v>19.78005531541811</v>
+        <v>19.78005531541807</v>
       </c>
       <c r="K9">
-        <v>19.50501308818353</v>
+        <v>19.5050130881835</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.47608123211016</v>
+        <v>26.47608123211017</v>
       </c>
       <c r="C10">
-        <v>13.48433714015744</v>
+        <v>13.48433714015735</v>
       </c>
       <c r="D10">
-        <v>3.504555133204603</v>
+        <v>3.504555133204608</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>44.29912224169306</v>
+        <v>44.29912224169303</v>
       </c>
       <c r="G10">
-        <v>32.67608663475136</v>
+        <v>32.67608663475134</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.29877071553785</v>
+        <v>15.29877071553783</v>
       </c>
       <c r="J10">
         <v>21.65422518894788</v>
       </c>
       <c r="K10">
-        <v>21.47834084195408</v>
+        <v>21.47834084195405</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.5145761661491</v>
+        <v>27.51457616614912</v>
       </c>
       <c r="C11">
-        <v>13.95830018449252</v>
+        <v>13.95830018449237</v>
       </c>
       <c r="D11">
-        <v>3.511591442430299</v>
+        <v>3.511591442430245</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.81978408982661</v>
+        <v>45.81978408982651</v>
       </c>
       <c r="G11">
-        <v>33.71753846383115</v>
+        <v>33.71753846383108</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.94145380570587</v>
+        <v>15.94145380570588</v>
       </c>
       <c r="J11">
-        <v>22.47511437967992</v>
+        <v>22.47511437967991</v>
       </c>
       <c r="K11">
-        <v>22.34822758807917</v>
+        <v>22.34822758807919</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.90239395765978</v>
+        <v>27.90239395765977</v>
       </c>
       <c r="C12">
-        <v>14.13543371696827</v>
+        <v>14.13543371696811</v>
       </c>
       <c r="D12">
-        <v>3.514077273086994</v>
+        <v>3.514077273086798</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>46.39497219555026</v>
+        <v>46.3949721955504</v>
       </c>
       <c r="G12">
-        <v>34.11278740705742</v>
+        <v>34.1127874070575</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.18257035506237</v>
+        <v>16.18257035506242</v>
       </c>
       <c r="J12">
-        <v>22.78170306350371</v>
+        <v>22.78170306350369</v>
       </c>
       <c r="K12">
-        <v>22.67404766541305</v>
+        <v>22.67404766541303</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.81910577521912</v>
+        <v>27.819105775219</v>
       </c>
       <c r="C13">
-        <v>14.0973864329705</v>
+        <v>14.09738643297041</v>
       </c>
       <c r="D13">
-        <v>3.513550092452128</v>
+        <v>3.513550092452127</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -845,16 +845,16 @@
         <v>46.27111651885517</v>
       </c>
       <c r="G13">
-        <v>34.02761925310627</v>
+        <v>34.02761925310628</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.13073596027731</v>
+        <v>16.13073596027733</v>
       </c>
       <c r="J13">
-        <v>22.71585827136983</v>
+        <v>22.71585827136974</v>
       </c>
       <c r="K13">
         <v>22.6040288585509</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.54658881751756</v>
+        <v>27.54658881751759</v>
       </c>
       <c r="C14">
-        <v>13.97291910425425</v>
+        <v>13.97291910425427</v>
       </c>
       <c r="D14">
-        <v>3.511799620139703</v>
+        <v>3.511799620139636</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.86711554123097</v>
+        <v>45.86711554123092</v>
       </c>
       <c r="G14">
-        <v>33.7500364276727</v>
+        <v>33.75003642767265</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.96133368221163</v>
+        <v>15.96133368221162</v>
       </c>
       <c r="J14">
-        <v>22.5004212600905</v>
+        <v>22.50042126009052</v>
       </c>
       <c r="K14">
         <v>22.37510233607583</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.37896816531947</v>
+        <v>27.37896816531948</v>
       </c>
       <c r="C15">
-        <v>13.89637878931217</v>
+        <v>13.89637878931216</v>
       </c>
       <c r="D15">
-        <v>3.51070369401547</v>
+        <v>3.510703694015452</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.61958200875618</v>
+        <v>45.61958200875617</v>
       </c>
       <c r="G15">
         <v>33.58013235603497</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.85728717615466</v>
+        <v>15.85728717615463</v>
       </c>
       <c r="J15">
-        <v>22.36791389093132</v>
+        <v>22.3679138909313</v>
       </c>
       <c r="K15">
-        <v>22.23442423797135</v>
+        <v>22.23442423797132</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.407430658229</v>
+        <v>26.40743065822905</v>
       </c>
       <c r="C16">
-        <v>13.45302526566691</v>
+        <v>13.45302526566698</v>
       </c>
       <c r="D16">
-        <v>3.504071088530769</v>
+        <v>3.5040710885307</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>44.19962804208606</v>
+        <v>44.19962804208611</v>
       </c>
       <c r="G16">
-        <v>32.60813094815745</v>
+        <v>32.60813094815747</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.25643521592125</v>
+        <v>15.2564352159212</v>
       </c>
       <c r="J16">
-        <v>21.59996465288311</v>
+        <v>21.59996465288317</v>
       </c>
       <c r="K16">
-        <v>21.42096613098195</v>
+        <v>21.42096613098188</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.80132191268151</v>
+        <v>25.80132191268144</v>
       </c>
       <c r="C17">
-        <v>13.17669088602295</v>
+        <v>13.17669088602319</v>
       </c>
       <c r="D17">
-        <v>3.499699363633431</v>
+        <v>3.499699363633547</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>43.32692060253422</v>
+        <v>43.32692060253435</v>
       </c>
       <c r="G17">
-        <v>32.01308499132656</v>
+        <v>32.01308499132667</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.88344588055456</v>
+        <v>14.88344588055451</v>
       </c>
       <c r="J17">
-        <v>21.12093349663832</v>
+        <v>21.12093349663834</v>
       </c>
       <c r="K17">
-        <v>20.91509133806218</v>
+        <v>20.91509133806224</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.44887398966008</v>
+        <v>25.44887398965999</v>
       </c>
       <c r="C18">
-        <v>13.01610370051158</v>
+        <v>13.01610370051157</v>
       </c>
       <c r="D18">
-        <v>3.49707791919221</v>
+        <v>3.497077919192145</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.82426023728092</v>
+        <v>42.82426023728089</v>
       </c>
       <c r="G18">
-        <v>31.67121207131965</v>
+        <v>31.67121207131963</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.66719594440967</v>
+        <v>14.66719594440962</v>
       </c>
       <c r="J18">
-        <v>20.84240592072748</v>
+        <v>20.84240592072745</v>
       </c>
       <c r="K18">
-        <v>20.62148218063896</v>
+        <v>20.62148218063895</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.3288726821684</v>
+        <v>25.32887268216825</v>
       </c>
       <c r="C19">
-        <v>12.96144452314948</v>
+        <v>12.96144452314971</v>
       </c>
       <c r="D19">
-        <v>3.496172368769489</v>
+        <v>3.496172368769627</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.65393885685781</v>
+        <v>42.65393885685771</v>
       </c>
       <c r="G19">
-        <v>31.55551940148233</v>
+        <v>31.55551940148226</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.59367325169982</v>
+        <v>14.59367325169981</v>
       </c>
       <c r="J19">
-        <v>20.74757752387257</v>
+        <v>20.74757752387251</v>
       </c>
       <c r="K19">
-        <v>20.52160563645553</v>
+        <v>20.5216056364556</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.86623707085855</v>
+        <v>25.86623707085865</v>
       </c>
       <c r="C20">
-        <v>13.20627657878455</v>
+        <v>13.20627657878457</v>
       </c>
       <c r="D20">
-        <v>3.500175904133743</v>
+        <v>3.500175904133736</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>43.41989230586012</v>
+        <v>43.41989230586016</v>
       </c>
       <c r="G20">
-        <v>32.07638764709855</v>
+        <v>32.07638764709856</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.92332660171703</v>
+        <v>14.92332660171706</v>
       </c>
       <c r="J20">
-        <v>21.17223584515836</v>
+        <v>21.17223584515844</v>
       </c>
       <c r="K20">
-        <v>20.96921337335101</v>
+        <v>20.96921337335104</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.62677798716209</v>
+        <v>27.62677798716201</v>
       </c>
       <c r="C21">
-        <v>14.00954048189404</v>
+        <v>14.00954048189385</v>
       </c>
       <c r="D21">
-        <v>3.512318745176447</v>
+        <v>3.512318745176578</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.98579437455791</v>
+        <v>45.98579437455788</v>
       </c>
       <c r="G21">
-        <v>33.83154288320671</v>
+        <v>33.83154288320669</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>16.01114948755396</v>
       </c>
       <c r="J21">
-        <v>22.56381353444204</v>
+        <v>22.56381353444195</v>
       </c>
       <c r="K21">
-        <v>22.4424373998534</v>
+        <v>22.44243739985339</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.7459109530905</v>
+        <v>28.74591095309072</v>
       </c>
       <c r="C22">
-        <v>14.52093781550901</v>
+        <v>14.52093781550896</v>
       </c>
       <c r="D22">
-        <v>3.519205504317559</v>
+        <v>3.519205504317486</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>47.65924551444576</v>
+        <v>47.65924551444601</v>
       </c>
       <c r="G22">
-        <v>34.9839382868665</v>
+        <v>34.98393828686662</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.7091623168047</v>
+        <v>16.70916231680478</v>
       </c>
       <c r="J22">
-        <v>23.44860144436797</v>
+        <v>23.44860144436814</v>
       </c>
       <c r="K22">
-        <v>23.38460154351148</v>
+        <v>23.38460154351151</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.1513514544387</v>
+        <v>28.15135145443867</v>
       </c>
       <c r="C23">
-        <v>14.24917993752081</v>
+        <v>14.24917993752088</v>
       </c>
       <c r="D23">
-        <v>3.515631017930624</v>
+        <v>3.515631017930556</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.76624784828893</v>
+        <v>46.76624784828898</v>
       </c>
       <c r="G23">
-        <v>34.36828171940092</v>
+        <v>34.36828171940097</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>16.33767994364993</v>
       </c>
       <c r="J23">
-        <v>22.97852499133288</v>
+        <v>22.97852499133289</v>
       </c>
       <c r="K23">
-        <v>22.88349086765452</v>
+        <v>22.88349086765445</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.83690137702548</v>
+        <v>25.8369013770256</v>
       </c>
       <c r="C24">
-        <v>13.19290625220789</v>
+        <v>13.19290625220786</v>
       </c>
       <c r="D24">
-        <v>3.499960795804123</v>
+        <v>3.499960795803911</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>43.37786271894458</v>
+        <v>43.37786271894469</v>
       </c>
       <c r="G24">
-        <v>32.04776782742368</v>
+        <v>32.04776782742374</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.90530220048572</v>
+        <v>14.90530220048583</v>
       </c>
       <c r="J24">
-        <v>21.14905181218202</v>
+        <v>21.14905181218208</v>
       </c>
       <c r="K24">
         <v>20.94475347469817</v>
@@ -1292,25 +1292,25 @@
         <v>11.99017536459835</v>
       </c>
       <c r="D25">
-        <v>3.479010973081023</v>
+        <v>3.479010973080891</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.69597875103919</v>
+        <v>39.69597875103926</v>
       </c>
       <c r="G25">
-        <v>29.55923739207476</v>
+        <v>29.55923739207481</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.29366278975957</v>
+        <v>13.29366278975962</v>
       </c>
       <c r="J25">
-        <v>19.06005391695666</v>
+        <v>19.06005391695664</v>
       </c>
       <c r="K25">
         <v>18.75125299169948</v>

--- a/Code/Results/Cases/Case_3_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_43/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.10698766680752</v>
+        <v>21.1065053572272</v>
       </c>
       <c r="C2">
-        <v>11.04552329451239</v>
+        <v>11.04446152167603</v>
       </c>
       <c r="D2">
-        <v>3.460537309393893</v>
+        <v>3.462138819758206</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.95551621291197</v>
+        <v>36.92006344267615</v>
       </c>
       <c r="G2">
-        <v>27.73498997934499</v>
+        <v>26.55627024137749</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>27.77075342681192</v>
       </c>
       <c r="I2">
-        <v>12.1276947936483</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>17.41323929518281</v>
+        <v>12.12566768024383</v>
       </c>
       <c r="K2">
-        <v>17.03535915213891</v>
+        <v>17.4125300663964</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>17.03680342604811</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.60150944321003</v>
+        <v>19.60124388235117</v>
       </c>
       <c r="C3">
-        <v>10.36677838774157</v>
+        <v>10.36602610327514</v>
       </c>
       <c r="D3">
-        <v>3.446302071900868</v>
+        <v>3.447461347029269</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.08091314790279</v>
+        <v>35.0478711930999</v>
       </c>
       <c r="G3">
-        <v>26.50420341563475</v>
+        <v>25.08972802358377</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>26.5388274400585</v>
       </c>
       <c r="I3">
-        <v>11.42537987838416</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>16.22550227500984</v>
+        <v>11.42352187128356</v>
       </c>
       <c r="K3">
-        <v>15.80416996698281</v>
+        <v>16.22504631343551</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>15.80560428421457</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.63029436052447</v>
+        <v>18.63015411154632</v>
       </c>
       <c r="C4">
-        <v>9.930624780419318</v>
+        <v>9.930069058830524</v>
       </c>
       <c r="D4">
-        <v>3.436771022985378</v>
+        <v>3.437654759513657</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.92286097025273</v>
+        <v>33.89136516216492</v>
       </c>
       <c r="G4">
-        <v>25.75209033696805</v>
+        <v>24.17886614141024</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>25.78607091952048</v>
       </c>
       <c r="I4">
-        <v>10.98765828055899</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>15.45977329893874</v>
+        <v>10.98590703736231</v>
       </c>
       <c r="K4">
-        <v>15.01295305681681</v>
+        <v>15.45947198455644</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>15.01437200793619</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.22252950182358</v>
+        <v>18.22243860415084</v>
       </c>
       <c r="C5">
-        <v>9.747972025724801</v>
+        <v>9.747498372926476</v>
       </c>
       <c r="D5">
-        <v>3.432696064049985</v>
+        <v>3.433466467715109</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.44953171772116</v>
+        <v>33.41868273446676</v>
       </c>
       <c r="G5">
-        <v>25.44670257331726</v>
+        <v>23.80532132082905</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>25.48043555819706</v>
       </c>
       <c r="I5">
-        <v>10.80774977597874</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>15.13842162541905</v>
+        <v>10.8060429325804</v>
       </c>
       <c r="K5">
-        <v>14.68144719541429</v>
+        <v>15.13818342871164</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>14.68285774703849</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.15409068561505</v>
+        <v>18.15400788544301</v>
       </c>
       <c r="C6">
-        <v>9.717344961654879</v>
+        <v>9.716885064760444</v>
       </c>
       <c r="D6">
-        <v>3.432008106664529</v>
+        <v>3.432759627127861</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.37086285814642</v>
+        <v>33.34012229309335</v>
       </c>
       <c r="G6">
-        <v>25.39606675014958</v>
+        <v>23.7431610866388</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>25.42975951747253</v>
       </c>
       <c r="I6">
-        <v>10.77778737308161</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>15.0844951444468</v>
+        <v>10.77608796028713</v>
       </c>
       <c r="K6">
-        <v>14.62584669040539</v>
+        <v>15.0842674433275</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>14.62725572321921</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.62484389954171</v>
+        <v>18.62470432278418</v>
       </c>
       <c r="C7">
-        <v>9.928181405959853</v>
+        <v>9.927626782779225</v>
       </c>
       <c r="D7">
-        <v>3.436716829894663</v>
+        <v>3.437599042270665</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.91648266085646</v>
+        <v>33.88499550813199</v>
       </c>
       <c r="G7">
-        <v>25.74796699511306</v>
+        <v>24.17383754275546</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>25.78194417870608</v>
       </c>
       <c r="I7">
-        <v>10.98523801188801</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>15.45547731727942</v>
+        <v>10.98348736367828</v>
       </c>
       <c r="K7">
-        <v>15.00851928007365</v>
+        <v>15.45517685331927</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>15.00993812633931</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.59749221978645</v>
+        <v>20.5970864154519</v>
       </c>
       <c r="C8">
-        <v>10.81549039474214</v>
+        <v>10.81453417131292</v>
       </c>
       <c r="D8">
-        <v>3.455797908515434</v>
+        <v>3.457247738844992</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.31079324169913</v>
+        <v>36.27615822201631</v>
       </c>
       <c r="G8">
-        <v>27.30997114268617</v>
+        <v>26.05288772783638</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>27.34533035992884</v>
       </c>
       <c r="I8">
-        <v>11.88693007317996</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>17.01118167387293</v>
+        <v>11.88496075945812</v>
       </c>
       <c r="K8">
-        <v>16.61803096284852</v>
+        <v>17.01056014235342</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>16.61947384660898</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.10433173398791</v>
+        <v>24.10332903917548</v>
       </c>
       <c r="C9">
-        <v>12.40422902862035</v>
+        <v>12.40252252970579</v>
       </c>
       <c r="D9">
-        <v>3.486568172983743</v>
+        <v>3.489101845129533</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.94065654540933</v>
+        <v>40.90035197463619</v>
       </c>
       <c r="G9">
-        <v>30.39613596529713</v>
+        <v>29.64915105447053</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>30.43462885017493</v>
       </c>
       <c r="I9">
-        <v>13.84642921338142</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>19.78005531541807</v>
+        <v>13.84431121459035</v>
       </c>
       <c r="K9">
-        <v>19.5050130881835</v>
+        <v>19.77878241199596</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>19.50641947774695</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.47608123211017</v>
+        <v>26.47457186453839</v>
       </c>
       <c r="C10">
-        <v>13.48433714015735</v>
+        <v>13.48208098359882</v>
       </c>
       <c r="D10">
-        <v>3.504555133204608</v>
+        <v>3.507871877253475</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>44.29912224169303</v>
+        <v>44.25491683093951</v>
       </c>
       <c r="G10">
-        <v>32.67608663475134</v>
+        <v>32.23688315145612</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>32.71711111645038</v>
       </c>
       <c r="I10">
-        <v>15.29877071553783</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>21.65422518894788</v>
+        <v>15.29637020914914</v>
       </c>
       <c r="K10">
-        <v>21.47834084195405</v>
+        <v>21.65243743136668</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>21.47965183236568</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.51457616614912</v>
+        <v>27.51281498594792</v>
       </c>
       <c r="C11">
-        <v>13.95830018449237</v>
+        <v>13.95578911479596</v>
       </c>
       <c r="D11">
-        <v>3.511591442430245</v>
+        <v>3.515262934935456</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.81978408982651</v>
+        <v>45.77384772871896</v>
       </c>
       <c r="G11">
-        <v>33.71753846383108</v>
+        <v>33.40441393200619</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>33.75975884634116</v>
       </c>
       <c r="I11">
-        <v>15.94145380570588</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>22.47511437967991</v>
+        <v>15.93891703809913</v>
       </c>
       <c r="K11">
-        <v>22.34822758807919</v>
+        <v>22.47307843158237</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>22.3494750834715</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.90239395765977</v>
+        <v>27.90053366441214</v>
       </c>
       <c r="C12">
-        <v>14.13543371696811</v>
+        <v>14.13282491395323</v>
       </c>
       <c r="D12">
-        <v>3.514077273086798</v>
+        <v>3.517883033200361</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>46.3949721955504</v>
+        <v>46.34838512863821</v>
       </c>
       <c r="G12">
-        <v>34.1127874070575</v>
+        <v>33.84546751133464</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>34.15546659076121</v>
       </c>
       <c r="I12">
-        <v>16.18257035506242</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>22.78170306350369</v>
+        <v>16.17998044941548</v>
       </c>
       <c r="K12">
-        <v>22.67404766541303</v>
+        <v>22.77957050300539</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>22.67526766083881</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.819105775219</v>
+        <v>27.81726700743366</v>
       </c>
       <c r="C13">
-        <v>14.09738643297041</v>
+        <v>14.0947987409379</v>
       </c>
       <c r="D13">
-        <v>3.513550092452127</v>
+        <v>3.517326936034655</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>46.27111651885517</v>
+        <v>46.22466940843841</v>
       </c>
       <c r="G13">
-        <v>34.02761925310628</v>
+        <v>33.75051962546204</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>34.07019936808629</v>
       </c>
       <c r="I13">
-        <v>16.13073596027733</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>22.71585827136974</v>
+        <v>16.12815757518262</v>
       </c>
       <c r="K13">
-        <v>22.6040288585509</v>
+        <v>22.71374664605571</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>22.60525494074794</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.54658881751759</v>
+        <v>27.54481956300808</v>
       </c>
       <c r="C14">
-        <v>13.97291910425427</v>
+        <v>13.97040002125153</v>
       </c>
       <c r="D14">
-        <v>3.511799620139636</v>
+        <v>3.515482159349767</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.86711554123092</v>
+        <v>45.82112556036896</v>
       </c>
       <c r="G14">
-        <v>33.75003642767265</v>
+        <v>33.44071872845078</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>33.7922944393278</v>
       </c>
       <c r="I14">
-        <v>15.96133368221162</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>22.50042126009052</v>
+        <v>15.95879257654959</v>
       </c>
       <c r="K14">
-        <v>22.37510233607583</v>
+        <v>22.49837742025507</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>22.37634764200898</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.37896816531948</v>
+        <v>27.37724097741372</v>
       </c>
       <c r="C15">
-        <v>13.89637878931216</v>
+        <v>13.89390155838634</v>
       </c>
       <c r="D15">
-        <v>3.510703694015452</v>
+        <v>3.514328465018314</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.61958200875617</v>
+        <v>45.57387260379446</v>
       </c>
       <c r="G15">
-        <v>33.58013235603497</v>
+        <v>33.25082972865225</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>33.62219383150396</v>
       </c>
       <c r="I15">
-        <v>15.85728717615463</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>22.3679138909313</v>
+        <v>15.85476869046027</v>
       </c>
       <c r="K15">
-        <v>22.23442423797132</v>
+        <v>22.36591120911466</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>22.23568084988777</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.40743065822905</v>
+        <v>26.40593726229794</v>
       </c>
       <c r="C16">
-        <v>13.45302526566698</v>
+        <v>13.45078562896694</v>
       </c>
       <c r="D16">
-        <v>3.5040710885307</v>
+        <v>3.507364630912206</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>44.19962804208611</v>
+        <v>44.15553650892703</v>
       </c>
       <c r="G16">
-        <v>32.60813094815747</v>
+        <v>32.16041290683171</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>32.64907812851058</v>
       </c>
       <c r="I16">
-        <v>15.2564352159212</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>21.59996465288317</v>
+        <v>15.25404342455764</v>
       </c>
       <c r="K16">
-        <v>21.42096613098188</v>
+        <v>21.59819278353831</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>21.42228082108857</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.80132191268144</v>
+        <v>25.79996603104881</v>
       </c>
       <c r="C17">
-        <v>13.17669088602319</v>
+        <v>13.17459542290673</v>
       </c>
       <c r="D17">
-        <v>3.499699363633547</v>
+        <v>3.502789423767857</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>43.32692060253435</v>
+        <v>43.28383177231896</v>
       </c>
       <c r="G17">
-        <v>32.01308499132667</v>
+        <v>31.48919796513876</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>32.05335961153587</v>
       </c>
       <c r="I17">
-        <v>14.88344588055451</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>21.12093349663834</v>
+        <v>14.88112955569648</v>
       </c>
       <c r="K17">
-        <v>20.91509133806224</v>
+        <v>21.11929923698709</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>20.91643614657141</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.44887398965999</v>
+        <v>25.44759524432293</v>
       </c>
       <c r="C18">
-        <v>13.01610370051157</v>
+        <v>13.01409073759366</v>
       </c>
       <c r="D18">
-        <v>3.497077919192145</v>
+        <v>3.50005079265896</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.82426023728089</v>
+        <v>42.78175234264128</v>
       </c>
       <c r="G18">
-        <v>31.67121207131963</v>
+        <v>31.10219879622858</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>31.71110404221892</v>
       </c>
       <c r="I18">
-        <v>14.66719594440962</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>20.84240592072745</v>
+        <v>14.66492232725467</v>
       </c>
       <c r="K18">
-        <v>20.62148218063895</v>
+        <v>20.84084953733726</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>20.62284246136642</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.32887268216825</v>
+        <v>25.32761973628845</v>
       </c>
       <c r="C19">
-        <v>12.96144452314971</v>
+        <v>12.95945943459111</v>
       </c>
       <c r="D19">
-        <v>3.496172368769627</v>
+        <v>3.499105535320463</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.65393885685771</v>
+        <v>42.6116284201033</v>
       </c>
       <c r="G19">
-        <v>31.55551940148226</v>
+        <v>30.97099931205526</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>31.59528254703527</v>
       </c>
       <c r="I19">
-        <v>14.59367325169981</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>20.74757752387251</v>
+        <v>14.59141398602237</v>
       </c>
       <c r="K19">
-        <v>20.5216056364556</v>
+        <v>20.74604730642116</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>20.52297085307519</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.86623707085865</v>
+        <v>25.86486675781943</v>
       </c>
       <c r="C20">
-        <v>13.20627657878457</v>
+        <v>13.20416581549771</v>
       </c>
       <c r="D20">
-        <v>3.500175904133736</v>
+        <v>3.503287639776975</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>43.41989230586016</v>
+        <v>43.37669631058257</v>
       </c>
       <c r="G20">
-        <v>32.07638764709856</v>
+        <v>31.56074468185935</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>32.11673343207297</v>
       </c>
       <c r="I20">
-        <v>14.92332660171706</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>21.17223584515844</v>
+        <v>14.92100231839003</v>
       </c>
       <c r="K20">
-        <v>20.96921337335104</v>
+        <v>21.17058707261073</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>20.97055517097454</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.62677798716201</v>
+        <v>27.62498842312502</v>
       </c>
       <c r="C21">
-        <v>14.00954048189385</v>
+        <v>14.00700128380598</v>
       </c>
       <c r="D21">
-        <v>3.512318745176578</v>
+        <v>3.516028984411395</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.98579437455788</v>
+        <v>45.93967000784797</v>
       </c>
       <c r="G21">
-        <v>33.83154288320669</v>
+        <v>33.53174047613275</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>33.87389534645831</v>
       </c>
       <c r="I21">
-        <v>16.01114948755396</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>22.56381353444195</v>
+        <v>16.00859747768316</v>
       </c>
       <c r="K21">
-        <v>22.44243739985339</v>
+        <v>22.56174986119317</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>22.44367715827636</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.74591095309072</v>
+        <v>28.7438250504394</v>
       </c>
       <c r="C22">
-        <v>14.52093781550896</v>
+        <v>14.51811130286105</v>
       </c>
       <c r="D22">
-        <v>3.519205504317486</v>
+        <v>3.523306594059227</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>47.65924551444601</v>
+        <v>47.61123412995285</v>
       </c>
       <c r="G22">
-        <v>34.98393828686662</v>
+        <v>34.81393459888735</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>35.02763667110658</v>
       </c>
       <c r="I22">
-        <v>16.70916231680478</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>23.44860144436814</v>
+        <v>16.70645222714901</v>
       </c>
       <c r="K22">
-        <v>23.38460154351151</v>
+        <v>23.44625091434642</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>23.38575410336562</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.15135145443867</v>
+        <v>28.1494260255886</v>
       </c>
       <c r="C23">
-        <v>14.24917993752088</v>
+        <v>14.24650762633935</v>
       </c>
       <c r="D23">
-        <v>3.515631017930556</v>
+        <v>3.519523475617388</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.76624784828898</v>
+        <v>46.71924172901038</v>
       </c>
       <c r="G23">
-        <v>34.36828171940097</v>
+        <v>34.13000959574719</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>34.41125874254885</v>
       </c>
       <c r="I23">
-        <v>16.33767994364993</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>22.97852499133289</v>
+        <v>16.33505523911838</v>
       </c>
       <c r="K23">
-        <v>22.88349086765445</v>
+        <v>22.97632923433337</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>22.88469206766127</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.8369013770256</v>
+        <v>25.83553759436341</v>
       </c>
       <c r="C24">
-        <v>13.19290625220786</v>
+        <v>13.19080240729707</v>
       </c>
       <c r="D24">
-        <v>3.499960795803911</v>
+        <v>3.503062732589771</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>43.37786271894469</v>
+        <v>43.33471515896203</v>
       </c>
       <c r="G24">
-        <v>32.04776782742374</v>
+        <v>31.52840188737372</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>32.0880814262834</v>
       </c>
       <c r="I24">
-        <v>14.90530220048583</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>21.14905181218208</v>
+        <v>14.90298151726692</v>
       </c>
       <c r="K24">
-        <v>20.94475347469817</v>
+        <v>21.14740960472405</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>20.94609663924411</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.19282061714787</v>
+        <v>23.19198947412023</v>
       </c>
       <c r="C25">
-        <v>11.99017536459835</v>
+        <v>11.98866994271988</v>
       </c>
       <c r="D25">
-        <v>3.479010973080891</v>
+        <v>3.481254155328475</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.69597875103926</v>
+        <v>39.65715761649489</v>
       </c>
       <c r="G25">
-        <v>29.55923739207481</v>
+        <v>28.68617999389005</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>29.59684025916986</v>
       </c>
       <c r="I25">
-        <v>13.29366278975962</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>19.06005391695664</v>
+        <v>13.29164429129148</v>
       </c>
       <c r="K25">
-        <v>18.75125299169948</v>
+        <v>19.05896177014028</v>
       </c>
       <c r="L25">
+        <v>18.75267981204196</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_43/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.1065053572272</v>
+        <v>26.77269888390316</v>
       </c>
       <c r="C2">
-        <v>11.04446152167603</v>
+        <v>15.65376937184476</v>
       </c>
       <c r="D2">
-        <v>3.462138819758206</v>
+        <v>3.323619976971989</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.92006344267615</v>
+        <v>44.31992300188841</v>
       </c>
       <c r="G2">
-        <v>26.55627024137749</v>
+        <v>2.131586374780772</v>
       </c>
       <c r="H2">
-        <v>27.77075342681192</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>12.12566768024383</v>
+        <v>6.014910536186488</v>
       </c>
       <c r="K2">
-        <v>17.4125300663964</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>17.03680342604811</v>
+        <v>6.710028044367408</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>15.58548031805385</v>
+      </c>
+      <c r="N2">
+        <v>15.88620621379197</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.60124388235117</v>
+        <v>25.27093492797598</v>
       </c>
       <c r="C3">
-        <v>10.36602610327514</v>
+        <v>14.51403290706711</v>
       </c>
       <c r="D3">
-        <v>3.447461347029269</v>
+        <v>3.105939847474572</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.0478711930999</v>
+        <v>43.06004931032701</v>
       </c>
       <c r="G3">
-        <v>25.08972802358377</v>
+        <v>2.144122223336699</v>
       </c>
       <c r="H3">
-        <v>26.5388274400585</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.42352187128356</v>
+        <v>6.038873102721316</v>
       </c>
       <c r="K3">
-        <v>16.22504631343551</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>15.80560428421457</v>
+        <v>6.663874303014499</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>15.04428143322941</v>
+      </c>
+      <c r="N3">
+        <v>16.08507998775087</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.63015411154632</v>
+        <v>24.3278123159832</v>
       </c>
       <c r="C4">
-        <v>9.930069058830524</v>
+        <v>13.78070329352161</v>
       </c>
       <c r="D4">
-        <v>3.437654759513657</v>
+        <v>2.968049973415921</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.89136516216492</v>
+        <v>42.31182591826527</v>
       </c>
       <c r="G4">
-        <v>24.17886614141024</v>
+        <v>2.151983082794992</v>
       </c>
       <c r="H4">
-        <v>25.78607091952048</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.98590703736231</v>
+        <v>6.054035478241407</v>
       </c>
       <c r="K4">
-        <v>15.45947198455644</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>15.01437200793619</v>
+        <v>6.638702522048422</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>14.71482122182059</v>
+      </c>
+      <c r="N4">
+        <v>16.21178808775132</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.22243860415084</v>
+        <v>23.9385146518098</v>
       </c>
       <c r="C5">
-        <v>9.747498372926476</v>
+        <v>13.47327835583688</v>
       </c>
       <c r="D5">
-        <v>3.433466467715109</v>
+        <v>2.910758744689886</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.41868273446676</v>
+        <v>42.01330273858233</v>
       </c>
       <c r="G5">
-        <v>23.80532132082905</v>
+        <v>2.155231032415649</v>
       </c>
       <c r="H5">
-        <v>25.48043555819706</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.8060429325804</v>
+        <v>6.060329567172279</v>
       </c>
       <c r="K5">
-        <v>15.13818342871164</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>14.68285774703849</v>
+        <v>6.629223510196517</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>14.58139726357316</v>
+      </c>
+      <c r="N5">
+        <v>16.26455741732126</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.15400788544301</v>
+        <v>23.87358336825951</v>
       </c>
       <c r="C6">
-        <v>9.716885064760444</v>
+        <v>13.42170775699053</v>
       </c>
       <c r="D6">
-        <v>3.432759627127861</v>
+        <v>2.901178257376868</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.34012229309335</v>
+        <v>41.96411931239832</v>
       </c>
       <c r="G6">
-        <v>23.7431610866388</v>
+        <v>2.155773138833203</v>
       </c>
       <c r="H6">
-        <v>25.42975951747253</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.77608796028713</v>
+        <v>6.061381726100092</v>
       </c>
       <c r="K6">
-        <v>15.0842674433275</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>14.62725572321921</v>
+        <v>6.627696049886866</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>14.55929648872986</v>
+      </c>
+      <c r="N6">
+        <v>16.27338770991813</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.62470432278418</v>
+        <v>24.32258172778127</v>
       </c>
       <c r="C7">
-        <v>9.927626782779225</v>
+        <v>13.77659221829326</v>
       </c>
       <c r="D7">
-        <v>3.437599042270665</v>
+        <v>2.967281818876458</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.88499550813199</v>
+        <v>42.30777405811612</v>
       </c>
       <c r="G7">
-        <v>24.17383754275546</v>
+        <v>2.152026700966236</v>
       </c>
       <c r="H7">
-        <v>25.78194417870608</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.98348736367828</v>
+        <v>6.054119892665172</v>
       </c>
       <c r="K7">
-        <v>15.45517685331927</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>15.00993812633931</v>
+        <v>6.63857155489106</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>14.71301827337241</v>
+      </c>
+      <c r="N7">
+        <v>16.21249518421811</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.5970864154519</v>
+        <v>26.25941854121775</v>
       </c>
       <c r="C8">
-        <v>10.81453417131292</v>
+        <v>15.26764740750806</v>
       </c>
       <c r="D8">
-        <v>3.457247738844992</v>
+        <v>3.249418676557302</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.27615822201631</v>
+        <v>43.88025918926438</v>
       </c>
       <c r="G8">
-        <v>26.05288772783638</v>
+        <v>2.135876877498661</v>
       </c>
       <c r="H8">
-        <v>27.34533035992884</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.88496075945812</v>
+        <v>6.023081012741134</v>
       </c>
       <c r="K8">
-        <v>17.01056014235342</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>16.61947384660898</v>
+        <v>6.693446198300053</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>15.39835246713039</v>
+      </c>
+      <c r="N8">
+        <v>15.95380895898971</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.10332903917548</v>
+        <v>29.88164365640111</v>
       </c>
       <c r="C9">
-        <v>12.40252252970579</v>
+        <v>17.93354223429037</v>
       </c>
       <c r="D9">
-        <v>3.489101845129533</v>
+        <v>3.771135040166169</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.90035197463619</v>
+        <v>47.16603704452596</v>
       </c>
       <c r="G9">
-        <v>29.64915105447053</v>
+        <v>2.105336357604732</v>
       </c>
       <c r="H9">
-        <v>30.43462885017493</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>13.84431121459035</v>
+        <v>5.965668792753839</v>
       </c>
       <c r="K9">
-        <v>19.77878241199596</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>19.50641947774695</v>
+        <v>6.8270156663788</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>16.76059989921713</v>
+      </c>
+      <c r="N9">
+        <v>15.4842559393525</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.47457186453839</v>
+        <v>32.43063459555198</v>
       </c>
       <c r="C10">
-        <v>13.48208098359882</v>
+        <v>19.74742364044992</v>
       </c>
       <c r="D10">
-        <v>3.507871877253475</v>
+        <v>4.138720164336974</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>44.25491683093951</v>
+        <v>49.70843611215171</v>
       </c>
       <c r="G10">
-        <v>32.23688315145612</v>
+        <v>2.083318613145986</v>
       </c>
       <c r="H10">
-        <v>32.71711111645038</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>15.29637020914914</v>
+        <v>5.925435418121909</v>
       </c>
       <c r="K10">
-        <v>21.65243743136668</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>21.47965183236568</v>
+        <v>6.942228143987264</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>17.76889323830481</v>
+      </c>
+      <c r="N10">
+        <v>15.16451394428898</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.51281498594792</v>
+        <v>33.56673813046456</v>
       </c>
       <c r="C11">
-        <v>13.95578911479596</v>
+        <v>20.54444026423685</v>
       </c>
       <c r="D11">
-        <v>3.515262934935456</v>
+        <v>4.303520560122578</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.77384772871896</v>
+        <v>50.89539503846642</v>
       </c>
       <c r="G11">
-        <v>33.40441393200619</v>
+        <v>2.073323587463347</v>
       </c>
       <c r="H11">
-        <v>33.75975884634116</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>15.93891703809913</v>
+        <v>5.907519108172075</v>
       </c>
       <c r="K11">
-        <v>22.47307843158237</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>22.3494750834715</v>
+        <v>6.998663028342833</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>18.22906010432598</v>
+      </c>
+      <c r="N11">
+        <v>15.02522441910948</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.90053366441214</v>
+        <v>33.99377465608919</v>
       </c>
       <c r="C12">
-        <v>14.13282491395323</v>
+        <v>20.84252081365771</v>
       </c>
       <c r="D12">
-        <v>3.517883033200361</v>
+        <v>4.365678994237853</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>46.34838512863821</v>
+        <v>51.34956441212874</v>
       </c>
       <c r="G12">
-        <v>33.84546751133464</v>
+        <v>2.069534938879701</v>
       </c>
       <c r="H12">
-        <v>34.15546659076121</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>16.17998044941548</v>
+        <v>5.90078718739823</v>
       </c>
       <c r="K12">
-        <v>22.77957050300539</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>22.67526766083881</v>
+        <v>7.020642025153598</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>18.40356273778938</v>
+      </c>
+      <c r="N12">
+        <v>14.97344165601282</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.81726700743366</v>
+        <v>33.90194210718897</v>
       </c>
       <c r="C13">
-        <v>14.0947987409379</v>
+        <v>20.77848438111917</v>
       </c>
       <c r="D13">
-        <v>3.517326936034655</v>
+        <v>4.352301321202085</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>46.22466940843841</v>
+        <v>51.25153576974838</v>
       </c>
       <c r="G13">
-        <v>33.75051962546204</v>
+        <v>2.070351177252271</v>
       </c>
       <c r="H13">
-        <v>34.07019936808629</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>16.12815757518262</v>
+        <v>5.902234734704261</v>
       </c>
       <c r="K13">
-        <v>22.71374664605571</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>22.60525494074794</v>
+        <v>7.015880879178205</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>18.36596848704562</v>
+      </c>
+      <c r="N13">
+        <v>14.98454974868712</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.54481956300808</v>
+        <v>33.60193300010999</v>
       </c>
       <c r="C14">
-        <v>13.97040002125153</v>
+        <v>20.56903638555714</v>
       </c>
       <c r="D14">
-        <v>3.515482159349767</v>
+        <v>4.308638709615233</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.82112556036896</v>
+        <v>50.93266349568666</v>
       </c>
       <c r="G14">
-        <v>33.44071872845078</v>
+        <v>2.073012010474364</v>
       </c>
       <c r="H14">
-        <v>33.7922944393278</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>15.95879257654959</v>
+        <v>5.906964231767691</v>
       </c>
       <c r="K14">
-        <v>22.49837742025507</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>22.37634764200898</v>
+        <v>7.00045887611248</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>18.24341124144614</v>
+      </c>
+      <c r="N14">
+        <v>15.02094441331791</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.37724097741372</v>
+        <v>33.41776178621726</v>
       </c>
       <c r="C15">
-        <v>13.89390155838634</v>
+        <v>20.4402673980417</v>
       </c>
       <c r="D15">
-        <v>3.514328465018314</v>
+        <v>4.28186505707645</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.57387260379446</v>
+        <v>50.7379678209398</v>
       </c>
       <c r="G15">
-        <v>33.25082972865225</v>
+        <v>2.074641141881532</v>
       </c>
       <c r="H15">
-        <v>33.62219383150396</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>15.85476869046027</v>
+        <v>5.90986794748448</v>
       </c>
       <c r="K15">
-        <v>22.36591120911466</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>22.23568084988777</v>
+        <v>6.991092631664718</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>18.1683753161816</v>
+      </c>
+      <c r="N15">
+        <v>15.04336521021102</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.40593726229794</v>
+        <v>32.35592982134698</v>
       </c>
       <c r="C16">
-        <v>13.45078562896694</v>
+        <v>19.69479646021642</v>
       </c>
       <c r="D16">
-        <v>3.507364630912206</v>
+        <v>4.127909586962471</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>44.15553650892703</v>
+        <v>49.63150229974391</v>
       </c>
       <c r="G16">
-        <v>32.16041290683171</v>
+        <v>2.083971676989624</v>
       </c>
       <c r="H16">
-        <v>32.64907812851058</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>15.25404342455764</v>
+        <v>5.926613811433996</v>
       </c>
       <c r="K16">
-        <v>21.59819278353831</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>21.42228082108857</v>
+        <v>6.938623407206832</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>17.73885212268613</v>
+      </c>
+      <c r="N16">
+        <v>15.17374704465065</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.79996603104881</v>
+        <v>31.69863018566126</v>
       </c>
       <c r="C17">
-        <v>13.17459542290673</v>
+        <v>19.23047911684811</v>
       </c>
       <c r="D17">
-        <v>3.502789423767857</v>
+        <v>4.032909811160104</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>43.28383177231896</v>
+        <v>48.96070312015446</v>
       </c>
       <c r="G17">
-        <v>31.48919796513876</v>
+        <v>2.089696509520416</v>
       </c>
       <c r="H17">
-        <v>32.05335961153587</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>14.88112955569648</v>
+        <v>5.936983677591683</v>
       </c>
       <c r="K17">
-        <v>21.11929923698709</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>20.91643614657141</v>
+        <v>6.907485729364141</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>17.47574578721367</v>
+      </c>
+      <c r="N17">
+        <v>15.2553600257455</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.44759524432293</v>
+        <v>31.31834475763662</v>
       </c>
       <c r="C18">
-        <v>13.01409073759366</v>
+        <v>18.96074755715311</v>
       </c>
       <c r="D18">
-        <v>3.50005079265896</v>
+        <v>3.978034180339824</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.78175234264128</v>
+        <v>48.57771391327532</v>
       </c>
       <c r="G18">
-        <v>31.10219879622858</v>
+        <v>2.092991711513465</v>
       </c>
       <c r="H18">
-        <v>31.71110404221892</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>14.66492232725467</v>
+        <v>5.942984666562213</v>
       </c>
       <c r="K18">
-        <v>20.84084953733726</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>20.62284246136642</v>
+        <v>6.889952936607193</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>17.32454975907081</v>
+      </c>
+      <c r="N18">
+        <v>15.30287618879336</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.32761973628845</v>
+        <v>31.18920044443617</v>
       </c>
       <c r="C19">
-        <v>12.95945943459111</v>
+        <v>18.86895394022511</v>
       </c>
       <c r="D19">
-        <v>3.499105535320463</v>
+        <v>3.959411231383256</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.6116284201033</v>
+        <v>48.44851961572259</v>
       </c>
       <c r="G19">
-        <v>30.97099931205526</v>
+        <v>2.094108018279779</v>
       </c>
       <c r="H19">
-        <v>31.59528254703527</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>14.59141398602237</v>
+        <v>5.945022857929882</v>
       </c>
       <c r="K19">
-        <v>20.74604730642116</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>20.52297085307519</v>
+        <v>6.884080509582692</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>17.2733803548</v>
+      </c>
+      <c r="N19">
+        <v>15.3190609494048</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.86486675781943</v>
+        <v>31.7688299666192</v>
       </c>
       <c r="C20">
-        <v>13.20416581549771</v>
+        <v>19.2801805450623</v>
       </c>
       <c r="D20">
-        <v>3.503287639776975</v>
+        <v>4.043046277482371</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>43.37669631058257</v>
+        <v>49.03181528531075</v>
       </c>
       <c r="G20">
-        <v>31.56074468185935</v>
+        <v>2.089086885791018</v>
       </c>
       <c r="H20">
-        <v>32.11673343207297</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>14.92100231839003</v>
+        <v>5.93587602929829</v>
       </c>
       <c r="K20">
-        <v>21.17058707261073</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>20.97055517097454</v>
+        <v>6.910761192080004</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>17.50373974358422</v>
+      </c>
+      <c r="N20">
+        <v>15.24661221901714</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.62498842312502</v>
+        <v>33.69013728166957</v>
       </c>
       <c r="C21">
-        <v>14.00700128380598</v>
+        <v>20.63065492473542</v>
       </c>
       <c r="D21">
-        <v>3.516028984411395</v>
+        <v>4.321469327422873</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.93967000784797</v>
+        <v>51.0261934783282</v>
       </c>
       <c r="G21">
-        <v>33.53174047613275</v>
+        <v>2.072230619833895</v>
       </c>
       <c r="H21">
-        <v>33.87389534645831</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>16.00859747768316</v>
+        <v>5.905573659871139</v>
       </c>
       <c r="K21">
-        <v>22.56174986119317</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>22.44367715827636</v>
+        <v>7.004971923944933</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>18.27940208562375</v>
+      </c>
+      <c r="N21">
+        <v>15.01022757739402</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.7438250504394</v>
+        <v>34.96032531193966</v>
       </c>
       <c r="C22">
-        <v>14.51811130286105</v>
+        <v>21.49169149628694</v>
       </c>
       <c r="D22">
-        <v>3.523306594059227</v>
+        <v>4.5020489328358</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>47.61123412995285</v>
+        <v>52.35723236896901</v>
       </c>
       <c r="G22">
-        <v>34.81393459888735</v>
+        <v>2.061188332114194</v>
       </c>
       <c r="H22">
-        <v>35.02763667110658</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>16.70645222714901</v>
+        <v>5.886074502799838</v>
       </c>
       <c r="K22">
-        <v>23.44625091434642</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>23.38575410336562</v>
+        <v>7.070107081478466</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>18.78783107564709</v>
+      </c>
+      <c r="N22">
+        <v>14.861399688148</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.1494260255886</v>
+        <v>34.26866143294842</v>
       </c>
       <c r="C23">
-        <v>14.24650762633935</v>
+        <v>21.03399915849956</v>
       </c>
       <c r="D23">
-        <v>3.519523475617388</v>
+        <v>4.405759551445089</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.71924172901038</v>
+        <v>51.64416868393458</v>
       </c>
       <c r="G23">
-        <v>34.13000959574719</v>
+        <v>2.067086667095513</v>
       </c>
       <c r="H23">
-        <v>34.41125874254885</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>16.33505523911838</v>
+        <v>5.896454619996254</v>
       </c>
       <c r="K23">
-        <v>22.97632923433337</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>22.88469206766127</v>
+        <v>7.035006196007326</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>18.51631451173131</v>
+      </c>
+      <c r="N23">
+        <v>14.94028354877361</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.83553759436341</v>
+        <v>31.7371001190023</v>
       </c>
       <c r="C24">
-        <v>13.19080240729707</v>
+        <v>19.25771924048614</v>
       </c>
       <c r="D24">
-        <v>3.503062732589771</v>
+        <v>4.038464395039807</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>43.33471515896203</v>
+        <v>48.99965720601832</v>
       </c>
       <c r="G24">
-        <v>31.52840188737372</v>
+        <v>2.089362483973706</v>
       </c>
       <c r="H24">
-        <v>32.0880814262834</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>14.90298151726692</v>
+        <v>5.936376674724101</v>
       </c>
       <c r="K24">
-        <v>21.14740960472405</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>20.94609663924411</v>
+        <v>6.909279209233429</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>17.49108346820803</v>
+      </c>
+      <c r="N24">
+        <v>15.2505652523553</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.19198947412023</v>
+        <v>28.92143715270984</v>
       </c>
       <c r="C25">
-        <v>11.98866994271988</v>
+        <v>17.23876729368367</v>
       </c>
       <c r="D25">
-        <v>3.481254155328475</v>
+        <v>3.633050515421389</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.65715761649489</v>
+        <v>46.25518192192201</v>
       </c>
       <c r="G25">
-        <v>28.68617999389005</v>
+        <v>2.113503225106117</v>
       </c>
       <c r="H25">
-        <v>29.59684025916986</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>13.29164429129148</v>
+        <v>5.980846505236545</v>
       </c>
       <c r="K25">
-        <v>19.05896177014028</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>18.75267981204196</v>
+        <v>6.787979113039667</v>
       </c>
       <c r="M25">
+        <v>16.39060350309743</v>
+      </c>
+      <c r="N25">
+        <v>15.60704461767076</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_43/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.77269888390316</v>
+        <v>18.53529282056938</v>
       </c>
       <c r="C2">
-        <v>15.65376937184476</v>
+        <v>12.39140575225493</v>
       </c>
       <c r="D2">
-        <v>3.323619976971989</v>
+        <v>4.496979711318082</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>44.31992300188841</v>
+        <v>14.27459650563717</v>
       </c>
       <c r="G2">
-        <v>2.131586374780772</v>
+        <v>16.57380483863729</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>6.751579985659164</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.014910536186488</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.710028044367408</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>15.58548031805385</v>
+        <v>29.93672988856779</v>
       </c>
       <c r="N2">
-        <v>15.88620621379197</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>10.5722550314928</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.27093492797598</v>
+        <v>17.44368119723613</v>
       </c>
       <c r="C3">
-        <v>14.51403290706711</v>
+        <v>11.88975117607719</v>
       </c>
       <c r="D3">
-        <v>3.105939847474572</v>
+        <v>4.279460435777492</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>43.06004931032701</v>
+        <v>13.81500169778039</v>
       </c>
       <c r="G3">
-        <v>2.144122223336699</v>
+        <v>15.87526429820681</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6.797514378154353</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.038873102721316</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.663874303014499</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>15.04428143322941</v>
+        <v>27.6408548214205</v>
       </c>
       <c r="N3">
-        <v>16.08507998775087</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.4857794859286</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.3278123159832</v>
+        <v>16.73526164441422</v>
       </c>
       <c r="C4">
-        <v>13.78070329352161</v>
+        <v>11.56984030131956</v>
       </c>
       <c r="D4">
-        <v>2.968049973415921</v>
+        <v>4.139414020631393</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.31182591826527</v>
+        <v>13.54586079345805</v>
       </c>
       <c r="G4">
-        <v>2.151983082794992</v>
+        <v>15.46627515991988</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>6.832576229765455</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.054035478241407</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.638702522048422</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>14.71482122182059</v>
+        <v>26.18084364385638</v>
       </c>
       <c r="N4">
-        <v>16.21178808775132</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.44877953230843</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.9385146518098</v>
+        <v>16.43707624046374</v>
       </c>
       <c r="C5">
-        <v>13.47327835583688</v>
+        <v>11.43666412483223</v>
       </c>
       <c r="D5">
-        <v>2.910758744689886</v>
+        <v>4.080756740685194</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>42.01330273858233</v>
+        <v>13.43956111068255</v>
       </c>
       <c r="G5">
-        <v>2.155231032415649</v>
+        <v>15.30481166778369</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6.848502986156836</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.060329567172279</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.629223510196517</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>14.58139726357316</v>
+        <v>25.57238494561586</v>
       </c>
       <c r="N5">
-        <v>16.26455741732126</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.43757399270558</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.87358336825951</v>
+        <v>16.38699240986958</v>
       </c>
       <c r="C6">
-        <v>13.42170775699053</v>
+        <v>11.41438623786049</v>
       </c>
       <c r="D6">
-        <v>2.901178257376868</v>
+        <v>4.070922312889463</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>41.96411931239832</v>
+        <v>13.42211675984812</v>
       </c>
       <c r="G6">
-        <v>2.155773138833203</v>
+        <v>15.27832056690514</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>6.851244154819375</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.061381726100092</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.627696049886866</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>14.55929648872986</v>
+        <v>25.47051354352079</v>
       </c>
       <c r="N6">
-        <v>16.27338770991813</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.43594189563363</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.32258172778127</v>
+        <v>16.73127852531757</v>
       </c>
       <c r="C7">
-        <v>13.77659221829326</v>
+        <v>11.56805536646579</v>
       </c>
       <c r="D7">
-        <v>2.967281818876458</v>
+        <v>4.138629311001958</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>42.30777405811612</v>
+        <v>13.54441340269147</v>
       </c>
       <c r="G7">
-        <v>2.152026700966236</v>
+        <v>15.46407628760474</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>6.832784498789326</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.054119892665172</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.63857155489106</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>14.71301827337241</v>
+        <v>26.17269341316293</v>
       </c>
       <c r="N7">
-        <v>16.21249518421811</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.4486129701609</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.25941854121775</v>
+        <v>18.16687892875146</v>
       </c>
       <c r="C8">
-        <v>15.26764740750806</v>
+        <v>12.22100694505751</v>
       </c>
       <c r="D8">
-        <v>3.249418676557302</v>
+        <v>4.423350431152929</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>43.88025918926438</v>
+        <v>14.11347778858135</v>
       </c>
       <c r="G8">
-        <v>2.135876877498661</v>
+        <v>16.32893091312586</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>6.76594206560755</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.023081012741134</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.693446198300053</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>15.39835246713039</v>
+        <v>29.15501984436787</v>
       </c>
       <c r="N8">
-        <v>15.95380895898971</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>10.53899489770309</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.88164365640111</v>
+        <v>20.67587204785077</v>
       </c>
       <c r="C9">
-        <v>17.93354223429037</v>
+        <v>13.39987376985617</v>
       </c>
       <c r="D9">
-        <v>3.771135040166169</v>
+        <v>4.928550898018695</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>47.16603704452596</v>
+        <v>15.32879927028933</v>
       </c>
       <c r="G9">
-        <v>2.105336357604732</v>
+        <v>18.17488940597901</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>6.693315030370339</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.965668792753839</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.8270156663788</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>16.76059989921713</v>
+        <v>34.64888955534391</v>
       </c>
       <c r="N9">
-        <v>15.4842559393525</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>10.85128920265941</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.43063459555198</v>
+        <v>22.32877864906644</v>
       </c>
       <c r="C10">
-        <v>19.74742364044992</v>
+        <v>14.19504775008422</v>
       </c>
       <c r="D10">
-        <v>4.138720164336974</v>
+        <v>5.265410825143646</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>49.70843611215171</v>
+        <v>16.27750569840128</v>
       </c>
       <c r="G10">
-        <v>2.083318613145986</v>
+        <v>19.6140948649613</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>6.681436026619382</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.925435418121909</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.942228143987264</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>17.76889323830481</v>
+        <v>38.5472396513849</v>
       </c>
       <c r="N10">
-        <v>15.16451394428898</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>11.17247738057659</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.56673813046456</v>
+        <v>23.0386266478115</v>
       </c>
       <c r="C11">
-        <v>20.54444026423685</v>
+        <v>14.53952472370075</v>
       </c>
       <c r="D11">
-        <v>4.303520560122578</v>
+        <v>5.410847097659659</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>50.89539503846642</v>
+        <v>16.72064968566882</v>
       </c>
       <c r="G11">
-        <v>2.073323587463347</v>
+        <v>20.30010476402914</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>6.68639768070366</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.907519108172075</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.998663028342833</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>18.22906010432598</v>
+        <v>40.31455536040868</v>
       </c>
       <c r="N11">
-        <v>15.02522441910948</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>11.34042404242827</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.99377465608919</v>
+        <v>23.3013029779203</v>
       </c>
       <c r="C12">
-        <v>20.84252081365771</v>
+        <v>14.66732159418262</v>
       </c>
       <c r="D12">
-        <v>4.365678994237853</v>
+        <v>5.464767290890193</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>51.34956441212874</v>
+        <v>16.89012213101143</v>
       </c>
       <c r="G12">
-        <v>2.069534938879701</v>
+        <v>20.58405545056253</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>6.689887321715833</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.90078718739823</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.020642025153598</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>18.40356273778938</v>
+        <v>40.98563736460449</v>
       </c>
       <c r="N12">
-        <v>14.97344165601282</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>11.40732071404967</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.90194210718897</v>
+        <v>23.24500492822722</v>
       </c>
       <c r="C13">
-        <v>20.77848438111917</v>
+        <v>14.63991898377828</v>
       </c>
       <c r="D13">
-        <v>4.352301321202085</v>
+        <v>5.453206441733212</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>51.25153576974838</v>
+        <v>16.85354867328514</v>
       </c>
       <c r="G13">
-        <v>2.070351177252271</v>
+        <v>20.52284809690014</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.689062129151659</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.902234734704261</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.015880879178205</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>18.36596848704562</v>
+        <v>40.84097407342707</v>
       </c>
       <c r="N13">
-        <v>14.98454974868712</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>11.39276392746838</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.60193300010999</v>
+        <v>23.06036051578822</v>
       </c>
       <c r="C14">
-        <v>20.56903638555714</v>
+        <v>14.55009278035035</v>
       </c>
       <c r="D14">
-        <v>4.308638709615233</v>
+        <v>5.415306449920513</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>50.93266349568666</v>
+        <v>16.73455876637145</v>
       </c>
       <c r="G14">
-        <v>2.073012010474364</v>
+        <v>20.32344173177426</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.686651777560858</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.906964231767691</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.00045887611248</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>18.24341124144614</v>
+        <v>40.36971041116553</v>
       </c>
       <c r="N14">
-        <v>15.02094441331791</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>11.34586060141292</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.41776178621726</v>
+        <v>22.94645981723442</v>
       </c>
       <c r="C15">
-        <v>20.4402673980417</v>
+        <v>14.4947213021018</v>
       </c>
       <c r="D15">
-        <v>4.28186505707645</v>
+        <v>5.391940428669112</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>50.7379678209398</v>
+        <v>16.66189149847015</v>
       </c>
       <c r="G15">
-        <v>2.074641141881532</v>
+        <v>20.20145300965392</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.685388834338865</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.90986794748448</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.991092631664718</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>18.1683753161816</v>
+        <v>40.08138131204296</v>
       </c>
       <c r="N15">
-        <v>15.04336521021102</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>11.31756549866935</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.35592982134698</v>
+        <v>22.28153560183811</v>
       </c>
       <c r="C16">
-        <v>19.69479646021642</v>
+        <v>14.1721742584431</v>
       </c>
       <c r="D16">
-        <v>4.127909586962471</v>
+        <v>5.255746588560513</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>49.63150229974391</v>
+        <v>16.24877688432653</v>
       </c>
       <c r="G16">
-        <v>2.083971676989624</v>
+        <v>19.57052547942791</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.681330461649265</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.926613811433996</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.938623407206832</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>17.73885212268613</v>
+        <v>38.43183365835434</v>
       </c>
       <c r="N16">
-        <v>15.17374704465065</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>11.16195441570253</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.69863018566126</v>
+        <v>21.86280095060006</v>
       </c>
       <c r="C17">
-        <v>19.23047911684811</v>
+        <v>13.96976917371604</v>
       </c>
       <c r="D17">
-        <v>4.032909811160104</v>
+        <v>5.17017597557665</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>48.96070312015446</v>
+        <v>15.99829293297426</v>
       </c>
       <c r="G17">
-        <v>2.089696509520416</v>
+        <v>19.19062774456084</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.681578918695871</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.936983677591683</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.907485729364141</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>17.47574578721367</v>
+        <v>37.42003374439044</v>
       </c>
       <c r="N17">
-        <v>15.2553600257455</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>11.07219499464972</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.31834475763662</v>
+        <v>21.61800161168</v>
       </c>
       <c r="C18">
-        <v>18.96074755715311</v>
+        <v>13.85173804410955</v>
       </c>
       <c r="D18">
-        <v>3.978034180339824</v>
+        <v>5.120225492925825</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>48.57771391327532</v>
+        <v>15.8553079743843</v>
       </c>
       <c r="G18">
-        <v>2.092991711513465</v>
+        <v>18.97374530153942</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>6.682689883027495</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.942984666562213</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.889952936607193</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>17.32454975907081</v>
+        <v>36.83730312714062</v>
       </c>
       <c r="N18">
-        <v>15.30287618879336</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>11.02261336176862</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.18920044443617</v>
+        <v>21.53443973627603</v>
       </c>
       <c r="C19">
-        <v>18.86895394022511</v>
+        <v>13.81150252704783</v>
       </c>
       <c r="D19">
-        <v>3.959411231383256</v>
+        <v>5.103188221118367</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>48.44851961572259</v>
+        <v>15.80708318772783</v>
       </c>
       <c r="G19">
-        <v>2.094108018279779</v>
+        <v>18.90059191650117</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>6.683228754922601</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.945022857929882</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.884080509582692</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>17.2733803548</v>
+        <v>36.63979777657617</v>
       </c>
       <c r="N19">
-        <v>15.3190609494048</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>11.00617252584608</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.7688299666192</v>
+        <v>21.90778572984819</v>
       </c>
       <c r="C20">
-        <v>19.2801805450623</v>
+        <v>13.99148364739809</v>
       </c>
       <c r="D20">
-        <v>4.043046277482371</v>
+        <v>5.179361145876276</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>49.03181528531075</v>
+        <v>16.02484506171889</v>
       </c>
       <c r="G20">
-        <v>2.089086885791018</v>
+        <v>19.23090035222457</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>6.681451431984275</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.93587602929829</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.910761192080004</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>17.50373974358422</v>
+        <v>37.52780407433495</v>
       </c>
       <c r="N20">
-        <v>15.24661221901714</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>11.08153720869483</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.69013728166957</v>
+        <v>23.11476208323526</v>
       </c>
       <c r="C21">
-        <v>20.63065492473542</v>
+        <v>14.57655025580005</v>
       </c>
       <c r="D21">
-        <v>4.321469327422873</v>
+        <v>5.426470163103839</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>51.0261934783282</v>
+        <v>16.76946358792134</v>
       </c>
       <c r="G21">
-        <v>2.072230619833895</v>
+        <v>20.38197991498866</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>6.68731504444612</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.905573659871139</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.004971923944933</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>18.27940208562375</v>
+        <v>40.50805643277153</v>
       </c>
       <c r="N21">
-        <v>15.01022757739402</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>11.35954638439039</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.96032531193966</v>
+        <v>23.86782035984668</v>
       </c>
       <c r="C22">
-        <v>21.49169149628694</v>
+        <v>14.94338745456705</v>
       </c>
       <c r="D22">
-        <v>4.5020489328358</v>
+        <v>5.581230026327884</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>52.35723236896901</v>
+        <v>17.26585122423503</v>
       </c>
       <c r="G22">
-        <v>2.061188332114194</v>
+        <v>21.21075408769067</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>6.700597705055291</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.886074502799838</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.070107081478466</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>18.78783107564709</v>
+        <v>42.46845352599619</v>
       </c>
       <c r="N22">
-        <v>14.861399688148</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>11.56055581011044</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.26866143294842</v>
+        <v>23.46920379017111</v>
       </c>
       <c r="C23">
-        <v>21.03399915849956</v>
+        <v>14.74908319613053</v>
       </c>
       <c r="D23">
-        <v>4.405759551445089</v>
+        <v>5.499259818330969</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>51.64416868393458</v>
+        <v>17.00001470965114</v>
       </c>
       <c r="G23">
-        <v>2.067086667095513</v>
+        <v>20.76773878087604</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>6.692601974622009</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.896454619996254</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.035006196007326</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>18.51631451173131</v>
+        <v>41.41987076439598</v>
       </c>
       <c r="N23">
-        <v>14.94028354877361</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>11.4514495369459</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.7371001190023</v>
+        <v>21.88746076154054</v>
       </c>
       <c r="C24">
-        <v>19.25771924048614</v>
+        <v>13.98167170990719</v>
       </c>
       <c r="D24">
-        <v>4.038464395039807</v>
+        <v>5.175210879098865</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>48.99965720601832</v>
+        <v>16.01283766142486</v>
       </c>
       <c r="G24">
-        <v>2.089362483973706</v>
+        <v>19.2126883556488</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>6.681506062237857</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.936376674724101</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.909279209233429</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>17.49108346820803</v>
+        <v>37.47908451972715</v>
       </c>
       <c r="N24">
-        <v>15.2505652523553</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>11.0773073066382</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.92143715270984</v>
+        <v>20.03032208289268</v>
       </c>
       <c r="C25">
-        <v>17.23876729368367</v>
+        <v>13.09279141417058</v>
       </c>
       <c r="D25">
-        <v>3.633050515421389</v>
+        <v>4.797780417271181</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>46.25518192192201</v>
+        <v>14.98993247127493</v>
       </c>
       <c r="G25">
-        <v>2.113503225106117</v>
+        <v>17.66047644621388</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>6.706119132115675</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.980846505236545</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.787979113039667</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>16.39060350309743</v>
+        <v>33.19353337949932</v>
       </c>
       <c r="N25">
-        <v>15.60704461767076</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>10.75134559536839</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_43/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.53529282056938</v>
+        <v>10.9736627452712</v>
       </c>
       <c r="C2">
-        <v>12.39140575225493</v>
+        <v>9.296680535415769</v>
       </c>
       <c r="D2">
-        <v>4.496979711318082</v>
+        <v>3.653592606117823</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>14.27459650563717</v>
+        <v>17.59872643132766</v>
       </c>
       <c r="G2">
-        <v>16.57380483863729</v>
+        <v>17.40960513049214</v>
       </c>
       <c r="H2">
-        <v>6.751579985659164</v>
+        <v>11.31221723110832</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.93672988856779</v>
+        <v>19.96689603056216</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>10.5722550314928</v>
+        <v>15.6981614827533</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.44368119723613</v>
+        <v>10.34268809100116</v>
       </c>
       <c r="C3">
-        <v>11.88975117607719</v>
+        <v>9.05563643969133</v>
       </c>
       <c r="D3">
-        <v>4.279460435777492</v>
+        <v>3.559009926077386</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>13.81500169778039</v>
+        <v>17.60423495498907</v>
       </c>
       <c r="G3">
-        <v>15.87526429820681</v>
+        <v>17.38419443477422</v>
       </c>
       <c r="H3">
-        <v>6.797514378154353</v>
+        <v>11.36118454430245</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.6408548214205</v>
+        <v>19.35867735633029</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>10.4857794859286</v>
+        <v>15.76570190521115</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.73526164441422</v>
+        <v>9.933033659756079</v>
       </c>
       <c r="C4">
-        <v>11.56984030131956</v>
+        <v>8.904159602897293</v>
       </c>
       <c r="D4">
-        <v>4.139414020631393</v>
+        <v>3.499068150005929</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>13.54586079345805</v>
+        <v>17.61460389484789</v>
       </c>
       <c r="G4">
-        <v>15.46627515991988</v>
+        <v>17.37900679444185</v>
       </c>
       <c r="H4">
-        <v>6.832576229765455</v>
+        <v>11.39368048097417</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.18084364385638</v>
+        <v>18.98351723438481</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>10.44877953230843</v>
+        <v>15.81228262224021</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.43707624046374</v>
+        <v>9.760569499825124</v>
       </c>
       <c r="C5">
-        <v>11.43666412483223</v>
+        <v>8.841635043197167</v>
       </c>
       <c r="D5">
-        <v>4.080756740685194</v>
+        <v>3.474194261469712</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>13.43956111068255</v>
+        <v>17.62058099442814</v>
       </c>
       <c r="G5">
-        <v>15.30481166778369</v>
+        <v>17.37950296100675</v>
       </c>
       <c r="H5">
-        <v>6.848502986156836</v>
+        <v>11.40753280653787</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.57238494561586</v>
+        <v>18.83046396632748</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>10.43757399270558</v>
+        <v>15.83254289221556</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.38699240986958</v>
+        <v>9.731600358507709</v>
       </c>
       <c r="C6">
-        <v>11.41438623786049</v>
+        <v>8.831207135963812</v>
       </c>
       <c r="D6">
-        <v>4.070922312889463</v>
+        <v>3.47003765611185</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>13.42211675984812</v>
+        <v>17.6216790999104</v>
       </c>
       <c r="G6">
-        <v>15.27832056690514</v>
+        <v>17.37974265155291</v>
       </c>
       <c r="H6">
-        <v>6.851244154819375</v>
+        <v>11.4098697852355</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.47051354352079</v>
+        <v>18.80504696197679</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.43594189563363</v>
+        <v>15.83598409339088</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.73127852531757</v>
+        <v>9.930730028481104</v>
       </c>
       <c r="C7">
-        <v>11.56805536646579</v>
+        <v>8.903319494201519</v>
       </c>
       <c r="D7">
-        <v>4.138629311001958</v>
+        <v>3.498734471513619</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>13.54441340269147</v>
+        <v>17.61467741977491</v>
       </c>
       <c r="G7">
-        <v>15.46407628760474</v>
+        <v>17.37900293244252</v>
       </c>
       <c r="H7">
-        <v>6.832784498789326</v>
+        <v>11.39386482992393</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.17269341316293</v>
+        <v>18.98145345253944</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.4486129701609</v>
+        <v>15.8125506929967</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.16687892875146</v>
+        <v>10.76075090311695</v>
       </c>
       <c r="C8">
-        <v>12.22100694505751</v>
+        <v>9.214334492096814</v>
       </c>
       <c r="D8">
-        <v>4.423350431152929</v>
+        <v>3.621381105325589</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>14.11347778858135</v>
+        <v>17.59917306954156</v>
       </c>
       <c r="G8">
-        <v>16.32893091312586</v>
+        <v>17.39867820903454</v>
       </c>
       <c r="H8">
-        <v>6.76594206560755</v>
+        <v>11.32859623684467</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.15501984436787</v>
+        <v>19.75768789472706</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>10.53899489770309</v>
+        <v>15.72038464669347</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.67587204785077</v>
+        <v>12.20992692548608</v>
       </c>
       <c r="C9">
-        <v>13.39987376985617</v>
+        <v>9.793530575333847</v>
       </c>
       <c r="D9">
-        <v>4.928550898018695</v>
+        <v>3.846168979463604</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>15.32879927028933</v>
+        <v>17.62435802111663</v>
       </c>
       <c r="G9">
-        <v>18.17488940597901</v>
+        <v>17.52004613545298</v>
       </c>
       <c r="H9">
-        <v>6.693315030370339</v>
+        <v>11.21993002638512</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.64888955534391</v>
+        <v>21.25571275239735</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>10.85128920265941</v>
+        <v>15.580495271353</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.32877864906644</v>
+        <v>13.16385984303693</v>
       </c>
       <c r="C10">
-        <v>14.19504775008422</v>
+        <v>10.19652466016197</v>
       </c>
       <c r="D10">
-        <v>5.265410825143646</v>
+        <v>4.000644870488932</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>16.27750569840128</v>
+        <v>17.67684212485724</v>
       </c>
       <c r="G10">
-        <v>19.6140948649613</v>
+        <v>17.6595426671511</v>
       </c>
       <c r="H10">
-        <v>6.681436026619382</v>
+        <v>11.15193686565066</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.5472396513849</v>
+        <v>22.32856300691375</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>11.17247738057659</v>
+        <v>15.50301294944026</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.0386266478115</v>
+        <v>13.57354079667325</v>
       </c>
       <c r="C11">
-        <v>14.53952472370075</v>
+        <v>10.3742590541593</v>
       </c>
       <c r="D11">
-        <v>5.410847097659659</v>
+        <v>4.068403248245383</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>16.72064968566882</v>
+        <v>17.70807870138606</v>
       </c>
       <c r="G11">
-        <v>20.30010476402914</v>
+        <v>17.73379712328533</v>
       </c>
       <c r="H11">
-        <v>6.68639768070366</v>
+        <v>11.12359040220977</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.31455536040868</v>
+        <v>22.8082062670447</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.34042404242827</v>
+        <v>15.47333545959125</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.3013029779203</v>
+        <v>13.72517498786779</v>
       </c>
       <c r="C12">
-        <v>14.66732159418262</v>
+        <v>10.44070687046231</v>
       </c>
       <c r="D12">
-        <v>5.464767290890193</v>
+        <v>4.093685580921326</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>16.89012213101143</v>
+        <v>17.72096118036057</v>
       </c>
       <c r="G12">
-        <v>20.58405545056253</v>
+        <v>17.76344935171436</v>
       </c>
       <c r="H12">
-        <v>6.689887321715833</v>
+        <v>11.11322907864713</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>40.98563736460449</v>
+        <v>22.98845109120195</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.40732071404967</v>
+        <v>15.46290430239257</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.24500492822722</v>
+        <v>13.69267381138091</v>
       </c>
       <c r="C13">
-        <v>14.63991898377828</v>
+        <v>10.42643501495161</v>
       </c>
       <c r="D13">
-        <v>5.453206441733212</v>
+        <v>4.088257535267003</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>16.85354867328514</v>
+        <v>17.71813993140761</v>
       </c>
       <c r="G13">
-        <v>20.52284809690014</v>
+        <v>17.75699535314265</v>
       </c>
       <c r="H13">
-        <v>6.689062129151659</v>
+        <v>11.11544397104523</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>40.84097407342707</v>
+        <v>22.94969640788394</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.39276392746838</v>
+        <v>15.46511484968331</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.06036051578822</v>
+        <v>13.58608609843354</v>
       </c>
       <c r="C14">
-        <v>14.55009278035035</v>
+        <v>10.37974320192438</v>
       </c>
       <c r="D14">
-        <v>5.415306449920513</v>
+        <v>4.070490862447055</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>16.73455876637145</v>
+        <v>17.70911746308846</v>
       </c>
       <c r="G14">
-        <v>20.32344173177426</v>
+        <v>17.73620601749341</v>
       </c>
       <c r="H14">
-        <v>6.686651777560858</v>
+        <v>11.12273048964696</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.36971041116553</v>
+        <v>22.82306384128571</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.34586060141292</v>
+        <v>15.47246107310803</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.94645981723442</v>
+        <v>13.52034153161124</v>
       </c>
       <c r="C15">
-        <v>14.4947213021018</v>
+        <v>10.35103012155247</v>
       </c>
       <c r="D15">
-        <v>5.391940428669112</v>
+        <v>4.059558841419764</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>16.66189149847015</v>
+        <v>17.70372801436369</v>
       </c>
       <c r="G15">
-        <v>20.20145300965392</v>
+        <v>17.72367103913757</v>
       </c>
       <c r="H15">
-        <v>6.685388834338865</v>
+        <v>11.12724228945803</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>40.08138131204296</v>
+        <v>22.74531232001424</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.31756549866935</v>
+        <v>15.4770661279766</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.28153560183811</v>
+        <v>13.13659662943472</v>
       </c>
       <c r="C16">
-        <v>14.1721742584431</v>
+        <v>10.18479221578837</v>
       </c>
       <c r="D16">
-        <v>5.255746588560513</v>
+        <v>3.996164820025617</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>16.24877688432653</v>
+        <v>17.67494851181115</v>
       </c>
       <c r="G16">
-        <v>19.57052547942791</v>
+        <v>17.65490571528282</v>
       </c>
       <c r="H16">
-        <v>6.681330461649265</v>
+        <v>11.15384148041535</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.43183365835434</v>
+        <v>22.2970325437194</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.16195441570253</v>
+        <v>15.50506505194338</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.86280095060006</v>
+        <v>12.89495470194098</v>
       </c>
       <c r="C17">
-        <v>13.96976917371604</v>
+        <v>10.08134002988551</v>
       </c>
       <c r="D17">
-        <v>5.17017597557665</v>
+        <v>3.956619841106567</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>15.99829293297426</v>
+        <v>17.6591758874212</v>
       </c>
       <c r="G17">
-        <v>19.19062774456084</v>
+        <v>17.61547379022151</v>
       </c>
       <c r="H17">
-        <v>6.681578918695871</v>
+        <v>11.17082195933178</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.42003374439044</v>
+        <v>22.01974352737308</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.07219499464972</v>
+        <v>15.52367247964435</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.61800161168</v>
+        <v>12.7536848661358</v>
       </c>
       <c r="C18">
-        <v>13.85173804410955</v>
+        <v>10.02131376578147</v>
       </c>
       <c r="D18">
-        <v>5.120225492925825</v>
+        <v>3.933638827479688</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>15.8553079743843</v>
+        <v>17.65079717052194</v>
       </c>
       <c r="G18">
-        <v>18.97374530153942</v>
+        <v>17.59381127061784</v>
       </c>
       <c r="H18">
-        <v>6.682689883027495</v>
+        <v>11.18083181923735</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.83730312714062</v>
+        <v>21.85947286993717</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.02261336176862</v>
+        <v>15.53489886894307</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.53443973627603</v>
+        <v>12.70546158058402</v>
       </c>
       <c r="C19">
-        <v>13.81150252704783</v>
+        <v>10.00090170915039</v>
       </c>
       <c r="D19">
-        <v>5.103188221118367</v>
+        <v>3.92581783108372</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>15.80708318772783</v>
+        <v>17.64807946425061</v>
       </c>
       <c r="G19">
-        <v>18.90059191650117</v>
+        <v>17.58665199965307</v>
       </c>
       <c r="H19">
-        <v>6.683228754922601</v>
+        <v>11.18426270544636</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.63979777657617</v>
+        <v>21.8050794851921</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.00617252584608</v>
+        <v>15.5387897168835</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.90778572984819</v>
+        <v>12.92091437503131</v>
       </c>
       <c r="C20">
-        <v>13.99148364739809</v>
+        <v>10.09240724797048</v>
       </c>
       <c r="D20">
-        <v>5.179361145876276</v>
+        <v>3.960853986999737</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>16.02484506171889</v>
+        <v>17.66078318640165</v>
       </c>
       <c r="G20">
-        <v>19.23090035222457</v>
+        <v>17.61956618182708</v>
       </c>
       <c r="H20">
-        <v>6.681451431984275</v>
+        <v>11.16898918517997</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.52780407433495</v>
+        <v>22.04934362608216</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>11.08153720869483</v>
+        <v>15.52163742103782</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.11476208323526</v>
+        <v>13.61748864753335</v>
       </c>
       <c r="C21">
-        <v>14.57655025580005</v>
+        <v>10.39348135456754</v>
       </c>
       <c r="D21">
-        <v>5.426470163103839</v>
+        <v>4.075719688700855</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>16.76946358792134</v>
+        <v>17.71173902567649</v>
       </c>
       <c r="G21">
-        <v>20.38197991498866</v>
+        <v>17.74227089931351</v>
       </c>
       <c r="H21">
-        <v>6.68731504444612</v>
+        <v>11.12058013266531</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.50805643277153</v>
+        <v>22.86029782842141</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.35954638439039</v>
+        <v>15.47028135822849</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.86782035984668</v>
+        <v>14.05231872688731</v>
       </c>
       <c r="C22">
-        <v>14.94338745456705</v>
+        <v>10.58523831765008</v>
       </c>
       <c r="D22">
-        <v>5.581230026327884</v>
+        <v>4.148591843456315</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>17.26585122423503</v>
+        <v>17.75118086407615</v>
       </c>
       <c r="G22">
-        <v>21.21075408769067</v>
+        <v>17.83139297904923</v>
       </c>
       <c r="H22">
-        <v>6.700597705055291</v>
+        <v>11.09111597483639</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.46845352599619</v>
+        <v>23.38215670305294</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.56055581011044</v>
+        <v>15.44142401440018</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.46920379017111</v>
+        <v>13.82211342727715</v>
       </c>
       <c r="C23">
-        <v>14.74908319613053</v>
+        <v>10.48336875300637</v>
       </c>
       <c r="D23">
-        <v>5.499259818330969</v>
+        <v>4.109904371122726</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>17.00001470965114</v>
+        <v>17.72957029726409</v>
       </c>
       <c r="G23">
-        <v>20.76773878087604</v>
+        <v>17.78301741449909</v>
       </c>
       <c r="H23">
-        <v>6.692601974622009</v>
+        <v>11.10664220455261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.41987076439598</v>
+        <v>23.10443026294243</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.4514495369459</v>
+        <v>15.45639309749545</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.88746076154054</v>
+        <v>12.90918531511975</v>
       </c>
       <c r="C24">
-        <v>13.98167170990719</v>
+        <v>10.08740546845987</v>
       </c>
       <c r="D24">
-        <v>5.175210879098865</v>
+        <v>3.958940494978111</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>16.01283766142486</v>
+        <v>17.66005437957434</v>
       </c>
       <c r="G24">
-        <v>19.2126883556488</v>
+        <v>17.61771287231964</v>
       </c>
       <c r="H24">
-        <v>6.681506062237857</v>
+        <v>11.16981701138927</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.47908451972715</v>
+        <v>22.03596406627888</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>11.0773073066382</v>
+        <v>15.52255582462493</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.03032208289268</v>
+        <v>11.8372356522409</v>
       </c>
       <c r="C25">
-        <v>13.09279141417058</v>
+        <v>9.640545068381009</v>
       </c>
       <c r="D25">
-        <v>4.797780417271181</v>
+        <v>3.787160045113734</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>14.98993247127493</v>
+        <v>17.61157697127513</v>
       </c>
       <c r="G25">
-        <v>17.66047644621388</v>
+        <v>17.47834516751758</v>
       </c>
       <c r="H25">
-        <v>6.706119132115675</v>
+        <v>11.2472517573267</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.19353337949932</v>
+        <v>20.85445576512474</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.75134559536839</v>
+        <v>15.61392450226412</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_43/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.9736627452712</v>
+        <v>18.53529282056937</v>
       </c>
       <c r="C2">
-        <v>9.296680535415769</v>
+        <v>12.39140575225499</v>
       </c>
       <c r="D2">
-        <v>3.653592606117823</v>
+        <v>4.496979711318104</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>17.59872643132766</v>
+        <v>14.27459650563712</v>
       </c>
       <c r="G2">
-        <v>17.40960513049214</v>
+        <v>16.57380483863726</v>
       </c>
       <c r="H2">
-        <v>11.31221723110832</v>
+        <v>6.751579985659113</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.96689603056216</v>
+        <v>29.93672988856785</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.6981614827533</v>
+        <v>10.5722550314927</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.34268809100116</v>
+        <v>17.44368119723618</v>
       </c>
       <c r="C3">
-        <v>9.05563643969133</v>
+        <v>11.88975117607719</v>
       </c>
       <c r="D3">
-        <v>3.559009926077386</v>
+        <v>4.279460435777447</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.60423495498907</v>
+        <v>13.81500169778027</v>
       </c>
       <c r="G3">
-        <v>17.38419443477422</v>
+        <v>15.87526429820669</v>
       </c>
       <c r="H3">
-        <v>11.36118454430245</v>
+        <v>6.79751437815429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.35867735633029</v>
+        <v>27.64085482142056</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.76570190521115</v>
+        <v>10.48577948592846</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.933033659756079</v>
+        <v>16.73526164441428</v>
       </c>
       <c r="C4">
-        <v>8.904159602897293</v>
+        <v>11.56984030131942</v>
       </c>
       <c r="D4">
-        <v>3.499068150005929</v>
+        <v>4.139414020631352</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.61460389484789</v>
+        <v>13.545860793458</v>
       </c>
       <c r="G4">
-        <v>17.37900679444185</v>
+        <v>15.46627515991985</v>
       </c>
       <c r="H4">
-        <v>11.39368048097417</v>
+        <v>6.832576229765405</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.98351723438481</v>
+        <v>26.18084364385648</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.81228262224021</v>
+        <v>10.44877953230837</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.760569499825124</v>
+        <v>16.43707624046365</v>
       </c>
       <c r="C5">
-        <v>8.841635043197167</v>
+        <v>11.43666412483202</v>
       </c>
       <c r="D5">
-        <v>3.474194261469712</v>
+        <v>4.080756740685289</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>17.62058099442814</v>
+        <v>13.43956111068264</v>
       </c>
       <c r="G5">
-        <v>17.37950296100675</v>
+        <v>15.30481166778382</v>
       </c>
       <c r="H5">
-        <v>11.40753280653787</v>
+        <v>6.848502986156957</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.83046396632748</v>
+        <v>25.57238494561588</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.83254289221556</v>
+        <v>10.43757399270569</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.731600358507709</v>
+        <v>16.38699240986966</v>
       </c>
       <c r="C6">
-        <v>8.831207135963812</v>
+        <v>11.41438623786023</v>
       </c>
       <c r="D6">
-        <v>3.47003765611185</v>
+        <v>4.070922312889551</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>17.6216790999104</v>
+        <v>13.42211675984802</v>
       </c>
       <c r="G6">
-        <v>17.37974265155291</v>
+        <v>15.27832056690508</v>
       </c>
       <c r="H6">
-        <v>11.4098697852355</v>
+        <v>6.851244154819263</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.80504696197679</v>
+        <v>25.47051354352075</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.83598409339088</v>
+        <v>10.43594189563357</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.930730028481104</v>
+        <v>16.73127852531761</v>
       </c>
       <c r="C7">
-        <v>8.903319494201519</v>
+        <v>11.56805536646571</v>
       </c>
       <c r="D7">
-        <v>3.498734471513619</v>
+        <v>4.138629311002066</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>17.61467741977491</v>
+        <v>13.54441340269146</v>
       </c>
       <c r="G7">
-        <v>17.37900293244252</v>
+        <v>15.46407628760479</v>
       </c>
       <c r="H7">
-        <v>11.39386482992393</v>
+        <v>6.832784498789278</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.98145345253944</v>
+        <v>26.1726934131629</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.8125506929967</v>
+        <v>10.44861297016094</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.76075090311695</v>
+        <v>18.16687892875151</v>
       </c>
       <c r="C8">
-        <v>9.214334492096814</v>
+        <v>12.22100694505733</v>
       </c>
       <c r="D8">
-        <v>3.621381105325589</v>
+        <v>4.423350431153042</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>17.59917306954156</v>
+        <v>14.11347778858133</v>
       </c>
       <c r="G8">
-        <v>17.39867820903454</v>
+        <v>16.32893091312589</v>
       </c>
       <c r="H8">
-        <v>11.32859623684467</v>
+        <v>6.765942065607558</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.75768789472706</v>
+        <v>29.15501984436784</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.72038464669347</v>
+        <v>10.53899489770312</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.20992692548608</v>
+        <v>20.67587204785076</v>
       </c>
       <c r="C9">
-        <v>9.793530575333847</v>
+        <v>13.39987376985617</v>
       </c>
       <c r="D9">
-        <v>3.846168979463604</v>
+        <v>4.928550898018689</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>17.62435802111663</v>
+        <v>15.32879927028933</v>
       </c>
       <c r="G9">
-        <v>17.52004613545298</v>
+        <v>18.17488940597901</v>
       </c>
       <c r="H9">
-        <v>11.21993002638512</v>
+        <v>6.693315030370339</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.25571275239735</v>
+        <v>34.64888955534398</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.580495271353</v>
+        <v>10.85128920265941</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.16385984303693</v>
+        <v>22.32877864906651</v>
       </c>
       <c r="C10">
-        <v>10.19652466016197</v>
+        <v>14.19504775008429</v>
       </c>
       <c r="D10">
-        <v>4.000644870488932</v>
+        <v>5.265410825143645</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>17.67684212485724</v>
+        <v>16.27750569840128</v>
       </c>
       <c r="G10">
-        <v>17.6595426671511</v>
+        <v>19.61409486496132</v>
       </c>
       <c r="H10">
-        <v>11.15193686565066</v>
+        <v>6.681436026619382</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.32856300691375</v>
+        <v>38.5472396513849</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.50301294944026</v>
+        <v>11.17247738057655</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.57354079667325</v>
+        <v>23.03862664781157</v>
       </c>
       <c r="C11">
-        <v>10.3742590541593</v>
+        <v>14.53952472370078</v>
       </c>
       <c r="D11">
-        <v>4.068403248245383</v>
+        <v>5.410847097659596</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>17.70807870138606</v>
+        <v>16.72064968566881</v>
       </c>
       <c r="G11">
-        <v>17.73379712328533</v>
+        <v>20.30010476402918</v>
       </c>
       <c r="H11">
-        <v>11.12359040220977</v>
+        <v>6.686397680703616</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.8082062670447</v>
+        <v>40.3145553604088</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.47333545959125</v>
+        <v>11.34042404242822</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.72517498786779</v>
+        <v>23.30130297792026</v>
       </c>
       <c r="C12">
-        <v>10.44070687046231</v>
+        <v>14.66732159418264</v>
       </c>
       <c r="D12">
-        <v>4.093685580921326</v>
+        <v>5.464767290890271</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>17.72096118036057</v>
+        <v>16.89012213101143</v>
       </c>
       <c r="G12">
-        <v>17.76344935171436</v>
+        <v>20.58405545056254</v>
       </c>
       <c r="H12">
-        <v>11.11322907864713</v>
+        <v>6.68988732171589</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.98845109120195</v>
+        <v>40.9856373646044</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.46290430239257</v>
+        <v>11.4073207140497</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.69267381138091</v>
+        <v>23.24500492822722</v>
       </c>
       <c r="C13">
-        <v>10.42643501495161</v>
+        <v>14.63991898377824</v>
       </c>
       <c r="D13">
-        <v>4.088257535267003</v>
+        <v>5.453206441733212</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>17.71813993140761</v>
+        <v>16.85354867328516</v>
       </c>
       <c r="G13">
-        <v>17.75699535314265</v>
+        <v>20.52284809690019</v>
       </c>
       <c r="H13">
-        <v>11.11544397104523</v>
+        <v>6.689062129151665</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.94969640788394</v>
+        <v>40.84097407342717</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.46511484968331</v>
+        <v>11.39276392746841</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.58608609843354</v>
+        <v>23.06036051578822</v>
       </c>
       <c r="C14">
-        <v>10.37974320192438</v>
+        <v>14.55009278035021</v>
       </c>
       <c r="D14">
-        <v>4.070490862447055</v>
+        <v>5.415306449920584</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>17.70911746308846</v>
+        <v>16.73455876637148</v>
       </c>
       <c r="G14">
-        <v>17.73620601749341</v>
+        <v>20.32344173177425</v>
       </c>
       <c r="H14">
-        <v>11.12273048964696</v>
+        <v>6.68665177756087</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.82306384128571</v>
+        <v>40.36971041116566</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.47246107310803</v>
+        <v>11.34586060141297</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.52034153161124</v>
+        <v>22.94645981723443</v>
       </c>
       <c r="C15">
-        <v>10.35103012155247</v>
+        <v>14.49472130210172</v>
       </c>
       <c r="D15">
-        <v>4.059558841419764</v>
+        <v>5.391940428669243</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>17.70372801436369</v>
+        <v>16.66189149847013</v>
       </c>
       <c r="G15">
-        <v>17.72367103913757</v>
+        <v>20.20145300965385</v>
       </c>
       <c r="H15">
-        <v>11.12724228945803</v>
+        <v>6.68538883433886</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.74531232001424</v>
+        <v>40.08138131204299</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.4770661279766</v>
+        <v>11.31756549866935</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.13659662943472</v>
+        <v>22.28153560183821</v>
       </c>
       <c r="C16">
-        <v>10.18479221578837</v>
+        <v>14.17217425844298</v>
       </c>
       <c r="D16">
-        <v>3.996164820025617</v>
+        <v>5.255746588560625</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>17.67494851181115</v>
+        <v>16.24877688432657</v>
       </c>
       <c r="G16">
-        <v>17.65490571528282</v>
+        <v>19.57052547942793</v>
       </c>
       <c r="H16">
-        <v>11.15384148041535</v>
+        <v>6.681330461649283</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.2970325437194</v>
+        <v>38.43183365835442</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.50506505194338</v>
+        <v>11.16195441570255</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.89495470194098</v>
+        <v>21.86280095060006</v>
       </c>
       <c r="C17">
-        <v>10.08134002988551</v>
+        <v>13.96976917371611</v>
       </c>
       <c r="D17">
-        <v>3.956619841106567</v>
+        <v>5.170175975576651</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>17.6591758874212</v>
+        <v>15.99829293297422</v>
       </c>
       <c r="G17">
-        <v>17.61547379022151</v>
+        <v>19.19062774456085</v>
       </c>
       <c r="H17">
-        <v>11.17082195933178</v>
+        <v>6.681578918695831</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.01974352737308</v>
+        <v>37.42003374439052</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.52367247964435</v>
+        <v>11.07219499464968</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.7536848661358</v>
+        <v>21.61800161167999</v>
       </c>
       <c r="C18">
-        <v>10.02131376578147</v>
+        <v>13.85173804410955</v>
       </c>
       <c r="D18">
-        <v>3.933638827479688</v>
+        <v>5.120225492925872</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>17.65079717052194</v>
+        <v>15.85530797438431</v>
       </c>
       <c r="G18">
-        <v>17.59381127061784</v>
+        <v>18.9737453015394</v>
       </c>
       <c r="H18">
-        <v>11.18083181923735</v>
+        <v>6.682689883027501</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.85947286993717</v>
+        <v>36.83730312714067</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.53489886894307</v>
+        <v>11.02261336176862</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.70546158058402</v>
+        <v>21.53443973627605</v>
       </c>
       <c r="C19">
-        <v>10.00090170915039</v>
+        <v>13.81150252704785</v>
       </c>
       <c r="D19">
-        <v>3.92581783108372</v>
+        <v>5.103188221118448</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>17.64807946425061</v>
+        <v>15.80708318772779</v>
       </c>
       <c r="G19">
-        <v>17.58665199965307</v>
+        <v>18.90059191650117</v>
       </c>
       <c r="H19">
-        <v>11.18426270544636</v>
+        <v>6.683228754922596</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.8050794851921</v>
+        <v>36.63979777657615</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.5387897168835</v>
+        <v>11.00617252584604</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.92091437503131</v>
+        <v>21.90778572984814</v>
       </c>
       <c r="C20">
-        <v>10.09240724797048</v>
+        <v>13.99148364739811</v>
       </c>
       <c r="D20">
-        <v>3.960853986999737</v>
+        <v>5.179361145876215</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>17.66078318640165</v>
+        <v>16.02484506171895</v>
       </c>
       <c r="G20">
-        <v>17.61956618182708</v>
+        <v>19.23090035222463</v>
       </c>
       <c r="H20">
-        <v>11.16898918517997</v>
+        <v>6.681451431984287</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.04934362608216</v>
+        <v>37.52780407433497</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.52163742103782</v>
+        <v>11.08153720869488</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.61748864753335</v>
+        <v>23.11476208323521</v>
       </c>
       <c r="C21">
-        <v>10.39348135456754</v>
+        <v>14.57655025580016</v>
       </c>
       <c r="D21">
-        <v>4.075719688700855</v>
+        <v>5.426470163103849</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>17.71173902567649</v>
+        <v>16.76946358792139</v>
       </c>
       <c r="G21">
-        <v>17.74227089931351</v>
+        <v>20.3819799149887</v>
       </c>
       <c r="H21">
-        <v>11.12058013266531</v>
+        <v>6.687315044446139</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.86029782842141</v>
+        <v>40.50805643277161</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.47028135822849</v>
+        <v>11.35954638439043</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.05231872688731</v>
+        <v>23.86782035984672</v>
       </c>
       <c r="C22">
-        <v>10.58523831765008</v>
+        <v>14.94338745456701</v>
       </c>
       <c r="D22">
-        <v>4.148591843456315</v>
+        <v>5.581230026327953</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>17.75118086407615</v>
+        <v>17.26585122423501</v>
       </c>
       <c r="G22">
-        <v>17.83139297904923</v>
+        <v>21.21075408769065</v>
       </c>
       <c r="H22">
-        <v>11.09111597483639</v>
+        <v>6.700597705055291</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.38215670305294</v>
+        <v>42.46845352599614</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.44142401440018</v>
+        <v>11.56055581011042</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.82211342727715</v>
+        <v>23.46920379017113</v>
       </c>
       <c r="C23">
-        <v>10.48336875300637</v>
+        <v>14.74908319613053</v>
       </c>
       <c r="D23">
-        <v>4.109904371122726</v>
+        <v>5.499259818330938</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>17.72957029726409</v>
+        <v>17.00001470965116</v>
       </c>
       <c r="G23">
-        <v>17.78301741449909</v>
+        <v>20.76773878087613</v>
       </c>
       <c r="H23">
-        <v>11.10664220455261</v>
+        <v>6.692601974621974</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.10443026294243</v>
+        <v>41.41987076439592</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.45639309749545</v>
+        <v>11.45144953694589</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.90918531511975</v>
+        <v>21.88746076154053</v>
       </c>
       <c r="C24">
-        <v>10.08740546845987</v>
+        <v>13.98167170990724</v>
       </c>
       <c r="D24">
-        <v>3.958940494978111</v>
+        <v>5.175210879098905</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>17.66005437957434</v>
+        <v>16.01283766142486</v>
       </c>
       <c r="G24">
-        <v>17.61771287231964</v>
+        <v>19.21268835564884</v>
       </c>
       <c r="H24">
-        <v>11.16981701138927</v>
+        <v>6.68150606223787</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.03596406627888</v>
+        <v>37.47908451972709</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.52255582462493</v>
+        <v>11.0773073066382</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.8372356522409</v>
+        <v>20.03032208289263</v>
       </c>
       <c r="C25">
-        <v>9.640545068381009</v>
+        <v>13.09279141417067</v>
       </c>
       <c r="D25">
-        <v>3.787160045113734</v>
+        <v>4.797780417271266</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>17.61157697127513</v>
+        <v>14.98993247127503</v>
       </c>
       <c r="G25">
-        <v>17.47834516751758</v>
+        <v>17.66047644621401</v>
       </c>
       <c r="H25">
-        <v>11.2472517573267</v>
+        <v>6.706119132115735</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.85445576512474</v>
+        <v>33.19353337949919</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.61392450226412</v>
+        <v>10.75134559536853</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_43/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.53529282056937</v>
+        <v>20.47029581693797</v>
       </c>
       <c r="C2">
-        <v>12.39140575225499</v>
+        <v>13.40634551009059</v>
       </c>
       <c r="D2">
-        <v>4.496979711318104</v>
+        <v>4.255675330807331</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>14.27459650563712</v>
+        <v>27.92374538806977</v>
       </c>
       <c r="G2">
-        <v>16.57380483863726</v>
+        <v>36.56550324014874</v>
       </c>
       <c r="H2">
-        <v>6.751579985659113</v>
+        <v>2.801213006328532</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.204198293983396</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.95005778200993</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.53793953480557</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.323072286896138</v>
       </c>
       <c r="M2">
-        <v>29.93672988856785</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.261657789603388</v>
       </c>
       <c r="O2">
-        <v>10.5722550314927</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>13.20067943322571</v>
+      </c>
+      <c r="P2">
+        <v>13.16413823455666</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.44368119723618</v>
+        <v>19.18628212638496</v>
       </c>
       <c r="C3">
-        <v>11.88975117607719</v>
+        <v>12.57769902577513</v>
       </c>
       <c r="D3">
-        <v>4.279460435777447</v>
+        <v>4.195887803298678</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>13.81500169778027</v>
+        <v>27.26113919978074</v>
       </c>
       <c r="G3">
-        <v>15.87526429820669</v>
+        <v>35.36035117459097</v>
       </c>
       <c r="H3">
-        <v>6.79751437815429</v>
+        <v>3.038223911891255</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.400269644245355</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>11.81127013418996</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.40239302486311</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.252623157258834</v>
       </c>
       <c r="M3">
-        <v>27.64085482142056</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.087266891671448</v>
       </c>
       <c r="O3">
-        <v>10.48577948592846</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.6199958049245</v>
+      </c>
+      <c r="P3">
+        <v>13.31058250569746</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.73526164441428</v>
+        <v>18.35220496833321</v>
       </c>
       <c r="C4">
-        <v>11.56984030131942</v>
+        <v>12.04377954807094</v>
       </c>
       <c r="D4">
-        <v>4.139414020631352</v>
+        <v>4.159081341643573</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>13.545860793458</v>
+        <v>26.85472598226339</v>
       </c>
       <c r="G4">
-        <v>15.46627515991985</v>
+        <v>34.61245276322798</v>
       </c>
       <c r="H4">
-        <v>6.832576229765405</v>
+        <v>3.188838321195541</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.525590187745459</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.72881394221008</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.32288646978732</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.207863163836503</v>
       </c>
       <c r="M4">
-        <v>26.18084364385648</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.97856918422569</v>
       </c>
       <c r="O4">
-        <v>10.44877953230837</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.25043538553921</v>
+      </c>
+      <c r="P4">
+        <v>13.40197570508527</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.43707624046365</v>
+        <v>17.99483094006987</v>
       </c>
       <c r="C5">
-        <v>11.43666412483202</v>
+        <v>11.82576394555491</v>
       </c>
       <c r="D5">
-        <v>4.080756740685289</v>
+        <v>4.144617645589107</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>13.43956111068264</v>
+        <v>26.67958807593408</v>
       </c>
       <c r="G5">
-        <v>15.30481166778382</v>
+        <v>34.28820172915675</v>
       </c>
       <c r="H5">
-        <v>6.848502986156957</v>
+        <v>3.251914521487896</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.580616500801813</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.69259729781686</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.28440281286995</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.189024917372691</v>
       </c>
       <c r="M5">
-        <v>25.57238494561588</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.934889242518773</v>
       </c>
       <c r="O5">
-        <v>10.43757399270569</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.09545354827986</v>
+      </c>
+      <c r="P5">
+        <v>13.43934136505689</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.38699240986966</v>
+        <v>17.92736780657701</v>
       </c>
       <c r="C6">
-        <v>11.41438623786023</v>
+        <v>11.79636202849479</v>
       </c>
       <c r="D6">
-        <v>4.070922312889551</v>
+        <v>4.14290450697516</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>13.42211675984802</v>
+        <v>26.63854002619895</v>
       </c>
       <c r="G6">
-        <v>15.27832056690508</v>
+        <v>34.212411408196</v>
       </c>
       <c r="H6">
-        <v>6.851244154819263</v>
+        <v>3.262953500469457</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.593291515125042</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.68257018630926</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.26950286075337</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.185615741340149</v>
       </c>
       <c r="M6">
-        <v>25.47051354352075</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.928824294834223</v>
       </c>
       <c r="O6">
-        <v>10.43594189563357</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.06797141606221</v>
+      </c>
+      <c r="P6">
+        <v>13.44525823387611</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.73127852531761</v>
+        <v>18.32757811547037</v>
       </c>
       <c r="C7">
-        <v>11.56805536646571</v>
+        <v>12.06003919499347</v>
       </c>
       <c r="D7">
-        <v>4.138629311002066</v>
+        <v>4.160756449418641</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>13.54441340269146</v>
+        <v>26.81988415274006</v>
       </c>
       <c r="G7">
-        <v>15.46407628760479</v>
+        <v>34.54902739694041</v>
       </c>
       <c r="H7">
-        <v>6.832784498789278</v>
+        <v>3.190991496367177</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.535517569138225</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.71729397716866</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.29903979207702</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.206924904045894</v>
       </c>
       <c r="M7">
-        <v>26.1726934131629</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.981261689484705</v>
       </c>
       <c r="O7">
-        <v>10.44861297016094</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.24414172223708</v>
+      </c>
+      <c r="P7">
+        <v>13.40169704287826</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.16687892875151</v>
+        <v>20.01273693076126</v>
       </c>
       <c r="C8">
-        <v>12.22100694505733</v>
+        <v>13.14938300028104</v>
       </c>
       <c r="D8">
-        <v>4.423350431153042</v>
+        <v>4.237492820119626</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>14.11347778858133</v>
+        <v>27.65358105766245</v>
       </c>
       <c r="G8">
-        <v>16.32893091312589</v>
+        <v>36.07677622224286</v>
       </c>
       <c r="H8">
-        <v>6.765942065607558</v>
+        <v>2.883538034072344</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.282635515882703</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.88728229513719</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.45992009488866</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.298254750238256</v>
       </c>
       <c r="M8">
-        <v>29.15501984436784</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.206120941665279</v>
       </c>
       <c r="O8">
-        <v>10.53899489770312</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.99794369368222</v>
+      </c>
+      <c r="P8">
+        <v>13.21360624908171</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.67587204785076</v>
+        <v>22.98425593694883</v>
       </c>
       <c r="C9">
-        <v>13.39987376985617</v>
+        <v>15.05563563995149</v>
       </c>
       <c r="D9">
-        <v>4.928550898018689</v>
+        <v>4.384147156045224</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>15.32879927028933</v>
+        <v>29.34054878152667</v>
       </c>
       <c r="G9">
-        <v>18.17488940597901</v>
+        <v>39.09429842838554</v>
       </c>
       <c r="H9">
-        <v>6.693315030370339</v>
+        <v>2.317790920064455</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.810010160458869</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.26152203440777</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.84668451681631</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.466918625142899</v>
       </c>
       <c r="M9">
-        <v>34.64888955534398</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.627081660462408</v>
       </c>
       <c r="O9">
-        <v>10.85128920265941</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>14.37364319700015</v>
+      </c>
+      <c r="P9">
+        <v>12.85679496381554</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.32877864906651</v>
+        <v>24.88309519180779</v>
       </c>
       <c r="C10">
-        <v>14.19504775008429</v>
+        <v>16.36034683610887</v>
       </c>
       <c r="D10">
-        <v>5.265410825143645</v>
+        <v>4.478374738348268</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>16.27750569840128</v>
+        <v>30.38562691281582</v>
       </c>
       <c r="G10">
-        <v>19.61409486496132</v>
+        <v>40.97876210457925</v>
       </c>
       <c r="H10">
-        <v>6.681436026619382</v>
+        <v>1.956036014558711</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.498266752436929</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>12.495286306389</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>19.04691750371289</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.585237098135543</v>
       </c>
       <c r="M10">
-        <v>38.5472396513849</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.85250440604359</v>
       </c>
       <c r="O10">
-        <v>11.17247738057655</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>15.23063050911332</v>
+      </c>
+      <c r="P10">
+        <v>12.60197982886871</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.03862664781157</v>
+        <v>25.2256183312496</v>
       </c>
       <c r="C11">
-        <v>14.53952472370078</v>
+        <v>17.09680942188126</v>
       </c>
       <c r="D11">
-        <v>5.410847097659596</v>
+        <v>4.408580502314922</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>16.72064968566881</v>
+        <v>29.35373308038727</v>
       </c>
       <c r="G11">
-        <v>20.30010476402918</v>
+        <v>39.66221853883384</v>
       </c>
       <c r="H11">
-        <v>6.686397680703616</v>
+        <v>2.87947664426774</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.567952236418505</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>12.16463932371209</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>18.31197023471429</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.694745076242691</v>
       </c>
       <c r="M11">
-        <v>40.3145553604088</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.329865778080827</v>
       </c>
       <c r="O11">
-        <v>11.34042404242822</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.92291543226568</v>
+      </c>
+      <c r="P11">
+        <v>12.5207369471831</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.30130297792026</v>
+        <v>25.14674372682642</v>
       </c>
       <c r="C12">
-        <v>14.66732159418264</v>
+        <v>17.43112704680023</v>
       </c>
       <c r="D12">
-        <v>5.464767290890271</v>
+        <v>4.338709454908336</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>16.89012213101143</v>
+        <v>28.28688846901616</v>
       </c>
       <c r="G12">
-        <v>20.58405545056254</v>
+        <v>38.20448205377807</v>
       </c>
       <c r="H12">
-        <v>6.68988732171589</v>
+        <v>4.228605978292721</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.579622244839279</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.84523178367395</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>17.67937892129988</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.824772499752024</v>
       </c>
       <c r="M12">
-        <v>40.9856373646044</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.862476074077746</v>
       </c>
       <c r="O12">
-        <v>11.4073207140497</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>14.48183387024494</v>
+      </c>
+      <c r="P12">
+        <v>12.52998451787451</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.24500492822722</v>
+        <v>24.71307037009441</v>
       </c>
       <c r="C13">
-        <v>14.63991898377824</v>
+        <v>17.50903905604305</v>
       </c>
       <c r="D13">
-        <v>5.453206441733212</v>
+        <v>4.266590920078326</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>16.85354867328516</v>
+        <v>27.0653817748955</v>
       </c>
       <c r="G13">
-        <v>20.52284809690019</v>
+        <v>36.43423842237038</v>
       </c>
       <c r="H13">
-        <v>6.689062129151665</v>
+        <v>5.642572937983503</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.534355668560095</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>11.49579548998908</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>17.05083662142298</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.972000567230404</v>
       </c>
       <c r="M13">
-        <v>40.84097407342717</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.416463954316291</v>
       </c>
       <c r="O13">
-        <v>11.39276392746841</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>13.89551245488018</v>
+      </c>
+      <c r="P13">
+        <v>12.604442052272</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.06036051578822</v>
+        <v>24.2380209484048</v>
       </c>
       <c r="C14">
-        <v>14.55009278035021</v>
+        <v>17.45360448244773</v>
       </c>
       <c r="D14">
-        <v>5.415306449920584</v>
+        <v>4.217106830696619</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>16.73455876637148</v>
+        <v>26.12632168607216</v>
       </c>
       <c r="G14">
-        <v>20.32344173177425</v>
+        <v>35.02292865617469</v>
       </c>
       <c r="H14">
-        <v>6.68665177756087</v>
+        <v>6.649966316473617</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.525615941946906</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>11.23446560831425</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>16.60982841364997</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.087883810416673</v>
       </c>
       <c r="M14">
-        <v>40.36971041116566</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.123982415701901</v>
       </c>
       <c r="O14">
-        <v>11.34586060141297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.41192214561574</v>
+      </c>
+      <c r="P14">
+        <v>12.68731915213298</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.94645981723443</v>
+        <v>24.03876831668866</v>
       </c>
       <c r="C15">
-        <v>14.49472130210172</v>
+        <v>17.39101627157141</v>
       </c>
       <c r="D15">
-        <v>5.391940428669243</v>
+        <v>4.203246798820313</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>16.66189149847013</v>
+        <v>25.85578736925093</v>
       </c>
       <c r="G15">
-        <v>20.20145300965385</v>
+        <v>34.59364543216527</v>
       </c>
       <c r="H15">
-        <v>6.68538883433886</v>
+        <v>6.886149236042925</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.557588694051138</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>11.16166796857927</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>16.49704977793322</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.111893250963809</v>
       </c>
       <c r="M15">
-        <v>40.08138131204299</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.054981364529761</v>
       </c>
       <c r="O15">
-        <v>11.31756549866935</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>13.26160315030115</v>
+      </c>
+      <c r="P15">
+        <v>12.71861594005858</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.28153560183821</v>
+        <v>23.30553650424243</v>
       </c>
       <c r="C16">
-        <v>14.17217425844298</v>
+        <v>16.85910684617908</v>
       </c>
       <c r="D16">
-        <v>5.255746588560625</v>
+        <v>4.176097820742775</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>16.24877688432657</v>
+        <v>25.59726585401568</v>
       </c>
       <c r="G16">
-        <v>19.57052547942793</v>
+        <v>34.02622571085753</v>
       </c>
       <c r="H16">
-        <v>6.681330461649283</v>
+        <v>6.7034078838749</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.687153869599901</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>11.1190382141076</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>16.5218516068866</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.027413237339548</v>
       </c>
       <c r="M16">
-        <v>38.43183365835442</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.043089897279897</v>
       </c>
       <c r="O16">
-        <v>11.16195441570255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>12.9887003568894</v>
+      </c>
+      <c r="P16">
+        <v>12.80029270363181</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.86280095060006</v>
+        <v>22.99649541112019</v>
       </c>
       <c r="C17">
-        <v>13.96976917371611</v>
+        <v>16.47340444517281</v>
       </c>
       <c r="D17">
-        <v>5.170175975576651</v>
+        <v>4.180979000361192</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>15.99829293297422</v>
+        <v>25.90899046451154</v>
       </c>
       <c r="G17">
-        <v>19.19062774456085</v>
+        <v>34.36545203105237</v>
       </c>
       <c r="H17">
-        <v>6.681578918695831</v>
+        <v>6.001688530849399</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.755772038460154</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.22702891994166</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.77430446312883</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.895947782772039</v>
       </c>
       <c r="M17">
-        <v>37.42003374439052</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.185571903512188</v>
       </c>
       <c r="O17">
-        <v>11.07219499464968</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>13.04388430802672</v>
+      </c>
+      <c r="P17">
+        <v>12.8200120774677</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.61800161167999</v>
+        <v>23.04107198775876</v>
       </c>
       <c r="C18">
-        <v>13.85173804410955</v>
+        <v>16.16310270867695</v>
       </c>
       <c r="D18">
-        <v>5.120225492925872</v>
+        <v>4.219795341400454</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>15.85530797438431</v>
+        <v>26.76568385499617</v>
       </c>
       <c r="G18">
-        <v>18.9737453015394</v>
+        <v>35.5590221396953</v>
       </c>
       <c r="H18">
-        <v>6.682689883027501</v>
+        <v>4.807926071665753</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.766558111070945</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.48299802480788</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>17.27037869027815</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.734707661788619</v>
       </c>
       <c r="M18">
-        <v>36.83730312714067</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.500635900917631</v>
       </c>
       <c r="O18">
-        <v>11.02261336176862</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>13.39123691384166</v>
+      </c>
+      <c r="P18">
+        <v>12.79765492440257</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.53443973627605</v>
+        <v>23.33444022837981</v>
       </c>
       <c r="C19">
-        <v>13.81150252704785</v>
+        <v>15.97095138114268</v>
       </c>
       <c r="D19">
-        <v>5.103188221118448</v>
+        <v>4.294323408923621</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>15.80708318772779</v>
+        <v>27.93668469401161</v>
       </c>
       <c r="G19">
-        <v>18.90059191650117</v>
+        <v>37.23578998148952</v>
       </c>
       <c r="H19">
-        <v>6.683228754922596</v>
+        <v>3.426739017060761</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.748398126106705</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.81928254501987</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>17.89480962992467</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.603164538827228</v>
       </c>
       <c r="M19">
-        <v>36.63979777657615</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.966881925136163</v>
       </c>
       <c r="O19">
-        <v>11.00617252584604</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.93429041009902</v>
+      </c>
+      <c r="P19">
+        <v>12.76109709261446</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.90778572984814</v>
+        <v>24.34837127476212</v>
       </c>
       <c r="C20">
-        <v>13.99148364739811</v>
+        <v>16.07345352117461</v>
       </c>
       <c r="D20">
-        <v>5.179361145876215</v>
+        <v>4.45825027312438</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>16.02484506171895</v>
+        <v>30.0139307325874</v>
       </c>
       <c r="G20">
-        <v>19.23090035222463</v>
+        <v>40.31848284179926</v>
       </c>
       <c r="H20">
-        <v>6.681451431984287</v>
+        <v>2.052468966567443</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.612548589659632</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>12.39869849154192</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.91973646502008</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.552958873167128</v>
       </c>
       <c r="M20">
-        <v>37.52780407433497</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.799773290918393</v>
       </c>
       <c r="O20">
-        <v>11.08153720869488</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>14.99568812126117</v>
+      </c>
+      <c r="P20">
+        <v>12.66849252296079</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.11476208323521</v>
+        <v>25.82935672813327</v>
       </c>
       <c r="C21">
-        <v>14.57655025580016</v>
+        <v>16.99784158088627</v>
       </c>
       <c r="D21">
-        <v>5.426470163103849</v>
+        <v>4.551644110608822</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>16.76946358792139</v>
+        <v>31.09400702849754</v>
       </c>
       <c r="G21">
-        <v>20.3819799149887</v>
+        <v>42.15423390827866</v>
       </c>
       <c r="H21">
-        <v>6.687315044446139</v>
+        <v>1.734851936422541</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.647565033651278</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>12.66503475342708</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>19.23826194737966</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.640711626592684</v>
       </c>
       <c r="M21">
-        <v>40.50805643277161</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.083054491789165</v>
       </c>
       <c r="O21">
-        <v>11.35954638439043</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.75319032340722</v>
+      </c>
+      <c r="P21">
+        <v>12.47316008692852</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.86782035984672</v>
+        <v>26.74775797620006</v>
       </c>
       <c r="C22">
-        <v>14.94338745456701</v>
+        <v>17.5719750871742</v>
       </c>
       <c r="D22">
-        <v>5.581230026327953</v>
+        <v>4.603244900674412</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>17.26585122423501</v>
+        <v>31.74459912764283</v>
       </c>
       <c r="G22">
-        <v>21.21075408769065</v>
+        <v>43.27534223698626</v>
       </c>
       <c r="H22">
-        <v>6.700597705055291</v>
+        <v>1.576739474777063</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.795305487334597</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.82924740785592</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>19.43121464741094</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.698232375649178</v>
       </c>
       <c r="M22">
-        <v>42.46845352599614</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.223684340999116</v>
       </c>
       <c r="O22">
-        <v>11.56055581011042</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>16.19745960403272</v>
+      </c>
+      <c r="P22">
+        <v>12.34675324670893</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.46920379017113</v>
+        <v>26.27851961353285</v>
       </c>
       <c r="C23">
-        <v>14.74908319613053</v>
+        <v>17.25092035145023</v>
       </c>
       <c r="D23">
-        <v>5.499259818330938</v>
+        <v>4.573705834607425</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>17.00001470965116</v>
+        <v>31.43074776815073</v>
       </c>
       <c r="G23">
-        <v>20.76773878087613</v>
+        <v>42.73579679073654</v>
       </c>
       <c r="H23">
-        <v>6.692601974621974</v>
+        <v>1.644262518514893</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.711908755599553</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>12.75330972297482</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>19.35365754300305</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.668193609516123</v>
       </c>
       <c r="M23">
-        <v>41.41987076439592</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.145413551797466</v>
       </c>
       <c r="O23">
-        <v>11.45144953694589</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>15.96572193685654</v>
+      </c>
+      <c r="P23">
+        <v>12.41398579146379</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.88746076154053</v>
+        <v>24.39379456191376</v>
       </c>
       <c r="C24">
-        <v>13.98167170990724</v>
+        <v>16.01717679300218</v>
       </c>
       <c r="D24">
-        <v>5.175210879098905</v>
+        <v>4.465085630111874</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>16.01283766142486</v>
+        <v>30.1833594343875</v>
       </c>
       <c r="G24">
-        <v>19.21268835564884</v>
+        <v>40.57330427189937</v>
       </c>
       <c r="H24">
-        <v>6.68150606223787</v>
+        <v>2.033183807597144</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.590819625185077</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>12.45186345873336</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.02796005305199</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.551626825570725</v>
       </c>
       <c r="M24">
-        <v>37.47908451972709</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.849529171844827</v>
       </c>
       <c r="O24">
-        <v>11.0773073066382</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>15.05233965219329</v>
+      </c>
+      <c r="P24">
+        <v>12.6706871369309</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.03032208289263</v>
+        <v>22.18949440115823</v>
       </c>
       <c r="C25">
-        <v>13.09279141417067</v>
+        <v>14.59034894585285</v>
       </c>
       <c r="D25">
-        <v>4.797780417271266</v>
+        <v>4.347709894860338</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>14.98993247127503</v>
+        <v>28.83104864887623</v>
       </c>
       <c r="G25">
-        <v>17.66047644621401</v>
+        <v>38.19171970371024</v>
       </c>
       <c r="H25">
-        <v>6.706119132115735</v>
+        <v>2.468890747294909</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.951319838437805</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>12.13890291099155</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.69783880437143</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.421443513744252</v>
       </c>
       <c r="M25">
-        <v>33.19353337949919</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.520512460574731</v>
       </c>
       <c r="O25">
-        <v>10.75134559536853</v>
+        <v>14.00720060211931</v>
+      </c>
+      <c r="P25">
+        <v>12.95174543393737</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_43/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.47029581693797</v>
+        <v>19.86725877336825</v>
       </c>
       <c r="C2">
-        <v>13.40634551009059</v>
+        <v>13.78891645044668</v>
       </c>
       <c r="D2">
-        <v>4.255675330807331</v>
+        <v>4.377522728404084</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.92374538806977</v>
+        <v>26.73388675261312</v>
       </c>
       <c r="G2">
-        <v>36.56550324014874</v>
+        <v>34.12826865361922</v>
       </c>
       <c r="H2">
-        <v>2.801213006328532</v>
+        <v>2.70054342839966</v>
       </c>
       <c r="I2">
-        <v>3.204198293983396</v>
+        <v>3.070993556819076</v>
       </c>
       <c r="J2">
-        <v>11.95005778200993</v>
+        <v>11.80076825794364</v>
       </c>
       <c r="K2">
-        <v>18.53793953480557</v>
+        <v>17.50639859149963</v>
       </c>
       <c r="L2">
-        <v>6.323072286896138</v>
+        <v>14.28716596851946</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.68707127515553</v>
       </c>
       <c r="N2">
-        <v>7.261657789603388</v>
+        <v>6.286106097983191</v>
       </c>
       <c r="O2">
-        <v>13.20067943322571</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>13.16413823455666</v>
+        <v>7.482687786807476</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>13.05111385130432</v>
+      </c>
+      <c r="R2">
+        <v>13.02489263628471</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.18628212638496</v>
+        <v>18.63729612351932</v>
       </c>
       <c r="C3">
-        <v>12.57769902577513</v>
+        <v>12.88738414430499</v>
       </c>
       <c r="D3">
-        <v>4.195887803298678</v>
+        <v>4.322139808275013</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.26113919978074</v>
+        <v>26.17123412922377</v>
       </c>
       <c r="G3">
-        <v>35.36035117459097</v>
+        <v>33.13514067164319</v>
       </c>
       <c r="H3">
-        <v>3.038223911891255</v>
+        <v>2.917257144964598</v>
       </c>
       <c r="I3">
-        <v>3.400269644245355</v>
+        <v>3.242426810936549</v>
       </c>
       <c r="J3">
-        <v>11.81127013418996</v>
+        <v>11.65381301657196</v>
       </c>
       <c r="K3">
-        <v>18.40239302486311</v>
+        <v>17.44032913286784</v>
       </c>
       <c r="L3">
-        <v>6.252623157258834</v>
+        <v>14.34052563799765</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.5464601769726</v>
       </c>
       <c r="N3">
-        <v>7.087266891671448</v>
+        <v>6.220340900838464</v>
       </c>
       <c r="O3">
-        <v>12.6199958049245</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>13.31058250569746</v>
+        <v>7.305701068605367</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.48026174579609</v>
+      </c>
+      <c r="R3">
+        <v>13.15257748491119</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.35220496833321</v>
+        <v>17.83672355897059</v>
       </c>
       <c r="C4">
-        <v>12.04377954807094</v>
+        <v>12.30544135234811</v>
       </c>
       <c r="D4">
-        <v>4.159081341643573</v>
+        <v>4.288343268342628</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.85472598226339</v>
+        <v>25.82556466285011</v>
       </c>
       <c r="G4">
-        <v>34.61245276322798</v>
+        <v>32.5226194759097</v>
       </c>
       <c r="H4">
-        <v>3.188838321195541</v>
+        <v>3.055086644820921</v>
       </c>
       <c r="I4">
-        <v>3.525590187745459</v>
+        <v>3.352387617921583</v>
       </c>
       <c r="J4">
-        <v>11.72881394221008</v>
+        <v>11.56326410059618</v>
       </c>
       <c r="K4">
-        <v>18.32288646978732</v>
+        <v>17.4021658493205</v>
       </c>
       <c r="L4">
-        <v>6.207863163836503</v>
+        <v>14.37114959491747</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.47927191651645</v>
       </c>
       <c r="N4">
-        <v>6.97856918422569</v>
+        <v>6.178597134081014</v>
       </c>
       <c r="O4">
-        <v>12.25043538553921</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>13.40197570508527</v>
+        <v>7.195748143450473</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.11644552688803</v>
+      </c>
+      <c r="R4">
+        <v>13.23291569672656</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.99483094006987</v>
+        <v>17.49314615358698</v>
       </c>
       <c r="C5">
-        <v>11.82576394555491</v>
+        <v>12.06713598357599</v>
       </c>
       <c r="D5">
-        <v>4.144617645589107</v>
+        <v>4.275223843397851</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.67958807593408</v>
+        <v>25.67524967860872</v>
       </c>
       <c r="G5">
-        <v>34.28820172915675</v>
+        <v>32.25516015521262</v>
       </c>
       <c r="H5">
-        <v>3.251914521487896</v>
+        <v>3.112843515199017</v>
       </c>
       <c r="I5">
-        <v>3.580616500801813</v>
+        <v>3.401530457085169</v>
       </c>
       <c r="J5">
-        <v>11.69259729781686</v>
+        <v>11.52303697399669</v>
       </c>
       <c r="K5">
-        <v>18.28440281286995</v>
+        <v>17.38056527910338</v>
       </c>
       <c r="L5">
-        <v>6.189024917372691</v>
+        <v>14.37722798115676</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.4526030375583</v>
       </c>
       <c r="N5">
-        <v>6.934889242518773</v>
+        <v>6.161064620999954</v>
       </c>
       <c r="O5">
-        <v>12.09545354827986</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>13.43934136505689</v>
+        <v>7.151632676166781</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.96374533745614</v>
+      </c>
+      <c r="R5">
+        <v>13.26610715792552</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.92736780657701</v>
+        <v>17.42809572337601</v>
       </c>
       <c r="C6">
-        <v>11.79636202849479</v>
+        <v>12.03444216053625</v>
       </c>
       <c r="D6">
-        <v>4.14290450697516</v>
+        <v>4.273785067406126</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.63854002619895</v>
+        <v>25.63865106312857</v>
       </c>
       <c r="G6">
-        <v>34.212411408196</v>
+        <v>32.18941416231073</v>
       </c>
       <c r="H6">
-        <v>3.262953500469457</v>
+        <v>3.12296366845769</v>
       </c>
       <c r="I6">
-        <v>3.593291515125042</v>
+        <v>3.413803271082555</v>
       </c>
       <c r="J6">
-        <v>11.68257018630926</v>
+        <v>11.51235852654808</v>
       </c>
       <c r="K6">
-        <v>18.26950286075337</v>
+        <v>17.36890934008527</v>
       </c>
       <c r="L6">
-        <v>6.185615741340149</v>
+        <v>14.37105315250573</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.44336589921307</v>
       </c>
       <c r="N6">
-        <v>6.928824294834223</v>
+        <v>6.157923386655156</v>
       </c>
       <c r="O6">
-        <v>12.06797141606221</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>13.44525823387611</v>
+        <v>7.145483027756103</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.93666305660877</v>
+      </c>
+      <c r="R6">
+        <v>13.2716103189411</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.32757811547037</v>
+        <v>17.80408232207951</v>
       </c>
       <c r="C7">
-        <v>12.06003919499347</v>
+        <v>12.30748129324472</v>
       </c>
       <c r="D7">
-        <v>4.160756449418641</v>
+        <v>4.292872982659011</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.81988415274006</v>
+        <v>25.77226555469367</v>
       </c>
       <c r="G7">
-        <v>34.54902739694041</v>
+        <v>32.53785656380218</v>
       </c>
       <c r="H7">
-        <v>3.190991496367177</v>
+        <v>3.057824628064103</v>
       </c>
       <c r="I7">
-        <v>3.535517569138225</v>
+        <v>3.364481068964957</v>
       </c>
       <c r="J7">
-        <v>11.71729397716866</v>
+        <v>11.5014396564403</v>
       </c>
       <c r="K7">
-        <v>18.29903979207702</v>
+        <v>17.37000030070192</v>
       </c>
       <c r="L7">
-        <v>6.206924904045894</v>
+        <v>14.34352123165785</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.45828479007181</v>
       </c>
       <c r="N7">
-        <v>6.981261689484705</v>
+        <v>6.17742078392236</v>
       </c>
       <c r="O7">
-        <v>12.24414172223708</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>13.40169704287826</v>
+        <v>7.198016889192391</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.10697620858585</v>
+      </c>
+      <c r="R7">
+        <v>13.23340702937889</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.01273693076126</v>
+        <v>19.40247526462085</v>
       </c>
       <c r="C8">
-        <v>13.14938300028104</v>
+        <v>13.46397653201339</v>
       </c>
       <c r="D8">
-        <v>4.237492820119626</v>
+        <v>4.369957889896896</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.65358105766245</v>
+        <v>26.43588638845667</v>
       </c>
       <c r="G8">
-        <v>36.07677622224286</v>
+        <v>33.95923503582478</v>
       </c>
       <c r="H8">
-        <v>2.883538034072344</v>
+        <v>2.778126325603131</v>
       </c>
       <c r="I8">
-        <v>3.282635515882703</v>
+        <v>3.145193860241995</v>
       </c>
       <c r="J8">
-        <v>11.88728229513719</v>
+        <v>11.57219295685814</v>
       </c>
       <c r="K8">
-        <v>18.45992009488866</v>
+        <v>17.42226097942513</v>
       </c>
       <c r="L8">
-        <v>6.298254750238256</v>
+        <v>14.25588566970637</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.59197210965268</v>
       </c>
       <c r="N8">
-        <v>7.206120941665279</v>
+        <v>6.261834980480997</v>
       </c>
       <c r="O8">
-        <v>12.99794369368222</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>13.21360624908171</v>
+        <v>7.424969593417284</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.84157537177318</v>
+      </c>
+      <c r="R8">
+        <v>13.06958744495145</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.98425593694883</v>
+        <v>22.23817342974353</v>
       </c>
       <c r="C9">
-        <v>15.05563563995149</v>
+        <v>15.52799200177961</v>
       </c>
       <c r="D9">
-        <v>4.384147156045224</v>
+        <v>4.509246382960699</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>29.34054878152667</v>
+        <v>27.85756618096708</v>
       </c>
       <c r="G9">
-        <v>39.09429842838554</v>
+        <v>36.52749851328797</v>
       </c>
       <c r="H9">
-        <v>2.317790920064455</v>
+        <v>2.261897591618883</v>
       </c>
       <c r="I9">
-        <v>2.810010160458869</v>
+        <v>2.731691620608069</v>
       </c>
       <c r="J9">
-        <v>12.26152203440777</v>
+        <v>11.90961585140903</v>
       </c>
       <c r="K9">
-        <v>18.84668451681631</v>
+        <v>17.61943815133087</v>
       </c>
       <c r="L9">
-        <v>6.466918625142899</v>
+        <v>14.12969316038958</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.05340464858339</v>
       </c>
       <c r="N9">
-        <v>7.627081660462408</v>
+        <v>6.419137090151082</v>
       </c>
       <c r="O9">
-        <v>14.37364319700015</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.85679496381554</v>
+        <v>7.853887418861678</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.189522647523</v>
+      </c>
+      <c r="R9">
+        <v>12.76272378429897</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.88309519180779</v>
+        <v>24.00984855285472</v>
       </c>
       <c r="C10">
-        <v>16.36034683610887</v>
+        <v>16.86346274428048</v>
       </c>
       <c r="D10">
-        <v>4.478374738348268</v>
+        <v>4.612005019607306</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30.38562691281582</v>
+        <v>28.62265728012664</v>
       </c>
       <c r="G10">
-        <v>40.97876210457925</v>
+        <v>38.52626101281048</v>
       </c>
       <c r="H10">
-        <v>1.956036014558711</v>
+        <v>1.938000803689915</v>
       </c>
       <c r="I10">
-        <v>2.498266752436929</v>
+        <v>2.516126385717571</v>
       </c>
       <c r="J10">
-        <v>12.495286306389</v>
+        <v>11.83759425871788</v>
       </c>
       <c r="K10">
-        <v>19.04691750371289</v>
+        <v>17.63611548984205</v>
       </c>
       <c r="L10">
-        <v>6.585237098135543</v>
+        <v>13.92362970886337</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.3622151537809</v>
       </c>
       <c r="N10">
-        <v>7.85250440604359</v>
+        <v>6.530644972205607</v>
       </c>
       <c r="O10">
-        <v>15.23063050911332</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.60197982886871</v>
+        <v>8.082231642450207</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>15.01112082810497</v>
+      </c>
+      <c r="R10">
+        <v>12.55619036710476</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.2256183312496</v>
+        <v>24.29384775957699</v>
       </c>
       <c r="C11">
-        <v>17.09680942188126</v>
+        <v>17.45078227861691</v>
       </c>
       <c r="D11">
-        <v>4.408580502314922</v>
+        <v>4.544052851628845</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>29.35373308038727</v>
+        <v>27.4281534588335</v>
       </c>
       <c r="G11">
-        <v>39.66221853883384</v>
+        <v>38.13861921011031</v>
       </c>
       <c r="H11">
-        <v>2.87947664426774</v>
+        <v>2.877507809290603</v>
       </c>
       <c r="I11">
-        <v>2.567952236418505</v>
+        <v>2.59620747845788</v>
       </c>
       <c r="J11">
-        <v>12.16463932371209</v>
+        <v>10.99241151980726</v>
       </c>
       <c r="K11">
-        <v>18.31197023471429</v>
+        <v>16.85743584209155</v>
       </c>
       <c r="L11">
-        <v>6.694745076242691</v>
+        <v>13.2684174548378</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.87597302516685</v>
       </c>
       <c r="N11">
-        <v>7.329865778080827</v>
+        <v>6.656101673559219</v>
       </c>
       <c r="O11">
-        <v>14.92291543226568</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.5207369471831</v>
+        <v>7.537482922077815</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.6758828298373</v>
+      </c>
+      <c r="R11">
+        <v>12.54964859059135</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.14674372682642</v>
+        <v>24.21520049393758</v>
       </c>
       <c r="C12">
-        <v>17.43112704680023</v>
+        <v>17.68987855806147</v>
       </c>
       <c r="D12">
-        <v>4.338709454908336</v>
+        <v>4.459266338300552</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>28.28688846901616</v>
+        <v>26.34807894255017</v>
       </c>
       <c r="G12">
-        <v>38.20448205377807</v>
+        <v>37.20251068162231</v>
       </c>
       <c r="H12">
-        <v>4.228605978292721</v>
+        <v>4.228765170319465</v>
       </c>
       <c r="I12">
-        <v>2.579622244839279</v>
+        <v>2.604326532005131</v>
       </c>
       <c r="J12">
-        <v>11.84523178367395</v>
+        <v>10.48685755412238</v>
       </c>
       <c r="K12">
-        <v>17.67937892129988</v>
+        <v>16.26388044434142</v>
       </c>
       <c r="L12">
-        <v>6.824772499752024</v>
+        <v>12.81930560181967</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.44072870742846</v>
       </c>
       <c r="N12">
-        <v>6.862476074077746</v>
+        <v>6.798928338292479</v>
       </c>
       <c r="O12">
-        <v>14.48183387024494</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.52998451787451</v>
+        <v>7.050322877491181</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>14.22896311586271</v>
+      </c>
+      <c r="R12">
+        <v>12.60754118900937</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.71307037009441</v>
+        <v>23.84447513954849</v>
       </c>
       <c r="C13">
-        <v>17.50903905604305</v>
+        <v>17.73381967773608</v>
       </c>
       <c r="D13">
-        <v>4.266590920078326</v>
+        <v>4.35830111473858</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>27.0653817748955</v>
+        <v>25.27236075888856</v>
       </c>
       <c r="G13">
-        <v>36.43423842237038</v>
+        <v>35.50694350915274</v>
       </c>
       <c r="H13">
-        <v>5.642572937983503</v>
+        <v>5.640237624620176</v>
       </c>
       <c r="I13">
-        <v>2.534355668560095</v>
+        <v>2.566169517527376</v>
       </c>
       <c r="J13">
-        <v>11.49579548998908</v>
+        <v>10.27474449902374</v>
       </c>
       <c r="K13">
-        <v>17.05083662142298</v>
+        <v>15.76180953026103</v>
       </c>
       <c r="L13">
-        <v>6.972000567230404</v>
+        <v>12.47892138303501</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.01168223593619</v>
       </c>
       <c r="N13">
-        <v>6.416463954316291</v>
+        <v>6.959356247377809</v>
       </c>
       <c r="O13">
-        <v>13.89551245488018</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.604442052272</v>
+        <v>6.585847929895426</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.65975042371004</v>
+      </c>
+      <c r="R13">
+        <v>12.70510701326054</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.2380209484048</v>
+        <v>23.44213368782763</v>
       </c>
       <c r="C14">
-        <v>17.45360448244773</v>
+        <v>17.68094125701608</v>
       </c>
       <c r="D14">
-        <v>4.217106830696619</v>
+        <v>4.286257918164662</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>26.12632168607216</v>
+        <v>24.5047742905066</v>
       </c>
       <c r="G14">
-        <v>35.02292865617469</v>
+        <v>33.95510505132086</v>
       </c>
       <c r="H14">
-        <v>6.649966316473617</v>
+        <v>6.645012051868456</v>
       </c>
       <c r="I14">
-        <v>2.525615941946906</v>
+        <v>2.520382633274135</v>
       </c>
       <c r="J14">
-        <v>11.23446560831425</v>
+        <v>10.24119554217645</v>
       </c>
       <c r="K14">
-        <v>16.60982841364997</v>
+        <v>15.4451334711519</v>
       </c>
       <c r="L14">
-        <v>7.087883810416673</v>
+        <v>12.28075028948389</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10.7119688325466</v>
       </c>
       <c r="N14">
-        <v>6.123982415701901</v>
+        <v>7.084751064631749</v>
       </c>
       <c r="O14">
-        <v>13.41192214561574</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.68731915213298</v>
+        <v>6.281013373981762</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.19813105871117</v>
+      </c>
+      <c r="R14">
+        <v>12.79005604394876</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.03876831668866</v>
+        <v>23.27306956931965</v>
       </c>
       <c r="C15">
-        <v>17.39101627157141</v>
+        <v>17.63028506410024</v>
       </c>
       <c r="D15">
-        <v>4.203246798820313</v>
+        <v>4.266398619669381</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>25.85578736925093</v>
+        <v>24.30570098602485</v>
       </c>
       <c r="G15">
-        <v>34.59364543216527</v>
+        <v>33.41050344442931</v>
       </c>
       <c r="H15">
-        <v>6.886149236042925</v>
+        <v>6.879943638110637</v>
       </c>
       <c r="I15">
-        <v>2.557588694051138</v>
+        <v>2.528000079786909</v>
       </c>
       <c r="J15">
-        <v>11.16166796857927</v>
+        <v>10.27980414139885</v>
       </c>
       <c r="K15">
-        <v>16.49704977793322</v>
+        <v>15.37798247883453</v>
       </c>
       <c r="L15">
-        <v>7.111893250963809</v>
+        <v>12.24571438531346</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.63539556687842</v>
       </c>
       <c r="N15">
-        <v>6.054981364529761</v>
+        <v>7.111656352187906</v>
       </c>
       <c r="O15">
-        <v>13.26160315030115</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.71861594005858</v>
+        <v>6.209568986382432</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.05745106488572</v>
+      </c>
+      <c r="R15">
+        <v>12.81643522325725</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.30553650424243</v>
+        <v>22.64387415822853</v>
       </c>
       <c r="C16">
-        <v>16.85910684617908</v>
+        <v>17.189809601543</v>
       </c>
       <c r="D16">
-        <v>4.176097820742775</v>
+        <v>4.233168818804684</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>25.59726585401568</v>
+        <v>24.29217882593615</v>
       </c>
       <c r="G16">
-        <v>34.02622571085753</v>
+        <v>32.1838084599672</v>
       </c>
       <c r="H16">
-        <v>6.7034078838749</v>
+        <v>6.689961284844312</v>
       </c>
       <c r="I16">
-        <v>2.687153869599901</v>
+        <v>2.635575748554597</v>
       </c>
       <c r="J16">
-        <v>11.1190382141076</v>
+        <v>10.70555874372937</v>
       </c>
       <c r="K16">
-        <v>16.5218516068866</v>
+        <v>15.52713064232702</v>
       </c>
       <c r="L16">
-        <v>7.027413237339548</v>
+        <v>12.41164650538463</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.64884254519327</v>
       </c>
       <c r="N16">
-        <v>6.043089897279897</v>
+        <v>7.032563253171471</v>
       </c>
       <c r="O16">
-        <v>12.9887003568894</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.80029270363181</v>
+        <v>6.20371075791947</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.82012414605912</v>
+      </c>
+      <c r="R16">
+        <v>12.85229507089051</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.99649541112019</v>
+        <v>22.36481625887104</v>
       </c>
       <c r="C17">
-        <v>16.47340444517281</v>
+        <v>16.85625246086748</v>
       </c>
       <c r="D17">
-        <v>4.180979000361192</v>
+        <v>4.243558092812938</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>25.90899046451154</v>
+        <v>24.67505603302659</v>
       </c>
       <c r="G17">
-        <v>34.36545203105237</v>
+        <v>32.19541778434353</v>
       </c>
       <c r="H17">
-        <v>6.001688530849399</v>
+        <v>5.982474461067926</v>
       </c>
       <c r="I17">
-        <v>2.755772038460154</v>
+        <v>2.693670374198783</v>
       </c>
       <c r="J17">
-        <v>11.22702891994166</v>
+        <v>10.99968412276686</v>
       </c>
       <c r="K17">
-        <v>16.77430446312883</v>
+        <v>15.79962834301974</v>
       </c>
       <c r="L17">
-        <v>6.895947782772039</v>
+        <v>12.6446722302915</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.80662837399002</v>
       </c>
       <c r="N17">
-        <v>6.185571903512188</v>
+        <v>6.898972747206497</v>
       </c>
       <c r="O17">
-        <v>13.04388430802672</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.8200120774677</v>
+        <v>6.356840453091239</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.88688704648707</v>
+      </c>
+      <c r="R17">
+        <v>12.8422328882</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.04107198775876</v>
+        <v>22.39247632505464</v>
       </c>
       <c r="C18">
-        <v>16.16310270867695</v>
+        <v>16.5931463996791</v>
       </c>
       <c r="D18">
-        <v>4.219795341400454</v>
+        <v>4.294142806930779</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>26.76568385499617</v>
+        <v>25.49972075162055</v>
       </c>
       <c r="G18">
-        <v>35.5590221396953</v>
+        <v>33.1568827426753</v>
       </c>
       <c r="H18">
-        <v>4.807926071665753</v>
+        <v>4.782602655910505</v>
       </c>
       <c r="I18">
-        <v>2.766558111070945</v>
+        <v>2.699930561795743</v>
       </c>
       <c r="J18">
-        <v>11.48299802480788</v>
+        <v>11.30889501667843</v>
       </c>
       <c r="K18">
-        <v>17.27037869027815</v>
+        <v>16.2472475873815</v>
       </c>
       <c r="L18">
-        <v>6.734707661788619</v>
+        <v>12.99409913828321</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.12879708846143</v>
       </c>
       <c r="N18">
-        <v>6.500635900917631</v>
+        <v>6.728741531052555</v>
       </c>
       <c r="O18">
-        <v>13.39123691384166</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.79765492440257</v>
+        <v>6.687451635547387</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.23238161344381</v>
+      </c>
+      <c r="R18">
+        <v>12.79368333812845</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.33444022837981</v>
+        <v>22.63991350388851</v>
       </c>
       <c r="C19">
-        <v>15.97095138114268</v>
+        <v>16.45008513865983</v>
       </c>
       <c r="D19">
-        <v>4.294323408923621</v>
+        <v>4.384737910892984</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>27.93668469401161</v>
+        <v>26.57628824439244</v>
       </c>
       <c r="G19">
-        <v>37.23578998148952</v>
+        <v>34.63580873011702</v>
       </c>
       <c r="H19">
-        <v>3.426739017060761</v>
+        <v>3.394095292744201</v>
       </c>
       <c r="I19">
-        <v>2.748398126106705</v>
+        <v>2.686110665604381</v>
       </c>
       <c r="J19">
-        <v>11.81928254501987</v>
+        <v>11.62701656068175</v>
       </c>
       <c r="K19">
-        <v>17.89480962992467</v>
+        <v>16.78158895944623</v>
       </c>
       <c r="L19">
-        <v>6.603164538827228</v>
+        <v>13.39667401811168</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11.53974997638276</v>
       </c>
       <c r="N19">
-        <v>6.966881925136163</v>
+        <v>6.582197690173242</v>
       </c>
       <c r="O19">
-        <v>13.93429041009902</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.76109709261446</v>
+        <v>7.171637947123628</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.76555028035274</v>
+      </c>
+      <c r="R19">
+        <v>12.73220117497523</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.34837127476212</v>
+        <v>23.53315288445276</v>
       </c>
       <c r="C20">
-        <v>16.07345352117461</v>
+        <v>16.60876687681406</v>
       </c>
       <c r="D20">
-        <v>4.45825027312438</v>
+        <v>4.580651602483873</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.0139307325874</v>
+        <v>28.39117837813579</v>
       </c>
       <c r="G20">
-        <v>40.31848284179926</v>
+        <v>37.59861663787132</v>
       </c>
       <c r="H20">
-        <v>2.052468966567443</v>
+        <v>2.022131765153262</v>
       </c>
       <c r="I20">
-        <v>2.612548589659632</v>
+        <v>2.571862901461331</v>
       </c>
       <c r="J20">
-        <v>12.39869849154192</v>
+        <v>11.990973511814</v>
       </c>
       <c r="K20">
-        <v>18.91973646502008</v>
+        <v>17.59615290471738</v>
       </c>
       <c r="L20">
-        <v>6.552958873167128</v>
+        <v>13.95224139776766</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.24925266195157</v>
       </c>
       <c r="N20">
-        <v>7.799773290918393</v>
+        <v>6.501896042356119</v>
       </c>
       <c r="O20">
-        <v>14.99568812126117</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.66849252296079</v>
+        <v>8.029651646125266</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.79560286204014</v>
+      </c>
+      <c r="R20">
+        <v>12.6110892236145</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.82935672813327</v>
+        <v>24.78652718959862</v>
       </c>
       <c r="C21">
-        <v>16.99784158088627</v>
+        <v>17.36261126656873</v>
       </c>
       <c r="D21">
-        <v>4.551644110608822</v>
+        <v>4.737653027636845</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>31.09400702849754</v>
+        <v>28.90406395281038</v>
       </c>
       <c r="G21">
-        <v>42.15423390827866</v>
+        <v>40.74293480255525</v>
       </c>
       <c r="H21">
-        <v>1.734851936422541</v>
+        <v>1.745059934970477</v>
       </c>
       <c r="I21">
-        <v>2.647565033651278</v>
+        <v>2.663258813798043</v>
       </c>
       <c r="J21">
-        <v>12.66503475342708</v>
+        <v>11.15927727062396</v>
       </c>
       <c r="K21">
-        <v>19.23826194737966</v>
+        <v>17.57366588492643</v>
       </c>
       <c r="L21">
-        <v>6.640711626592684</v>
+        <v>13.76818883757191</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>12.47324050979404</v>
       </c>
       <c r="N21">
-        <v>8.083054491789165</v>
+        <v>6.57449151739188</v>
       </c>
       <c r="O21">
-        <v>15.75319032340722</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.47316008692852</v>
+        <v>8.313273248290093</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.47257924871325</v>
+      </c>
+      <c r="R21">
+        <v>12.4592910585584</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.74775797620006</v>
+        <v>25.56577726716147</v>
       </c>
       <c r="C22">
-        <v>17.5719750871742</v>
+        <v>17.81405732067673</v>
       </c>
       <c r="D22">
-        <v>4.603244900674412</v>
+        <v>4.835930606767793</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>31.74459912764283</v>
+        <v>29.17053749125487</v>
       </c>
       <c r="G22">
-        <v>43.27534223698626</v>
+        <v>42.81039818130596</v>
       </c>
       <c r="H22">
-        <v>1.576739474777063</v>
+        <v>1.580226749630681</v>
       </c>
       <c r="I22">
-        <v>2.795305487334597</v>
+        <v>2.781864526870498</v>
       </c>
       <c r="J22">
-        <v>12.82924740785592</v>
+        <v>10.57554292786696</v>
       </c>
       <c r="K22">
-        <v>19.43121464741094</v>
+        <v>17.53374258985342</v>
       </c>
       <c r="L22">
-        <v>6.698232375649178</v>
+        <v>13.62959384332472</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>12.60732569114906</v>
       </c>
       <c r="N22">
-        <v>8.223684340999116</v>
+        <v>6.623658820056239</v>
       </c>
       <c r="O22">
-        <v>16.19745960403272</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.34675324670893</v>
+        <v>8.452922977797607</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>15.86230795273794</v>
+      </c>
+      <c r="R22">
+        <v>12.36635631201777</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.27851961353285</v>
+        <v>25.18202260442779</v>
       </c>
       <c r="C23">
-        <v>17.25092035145023</v>
+        <v>17.58523995247461</v>
       </c>
       <c r="D23">
-        <v>4.573705834607425</v>
+        <v>4.773165222544465</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>31.43074776815073</v>
+        <v>29.10598760417451</v>
       </c>
       <c r="G23">
-        <v>42.73579679073654</v>
+        <v>41.59077909246276</v>
       </c>
       <c r="H23">
-        <v>1.644262518514893</v>
+        <v>1.665429664231246</v>
       </c>
       <c r="I23">
-        <v>2.711908755599553</v>
+        <v>2.713576375255283</v>
       </c>
       <c r="J23">
-        <v>12.75330972297482</v>
+        <v>11.00688658621053</v>
       </c>
       <c r="K23">
-        <v>19.35365754300305</v>
+        <v>17.60314896222996</v>
       </c>
       <c r="L23">
-        <v>6.668193609516123</v>
+        <v>13.73732215388496</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>12.57428471457638</v>
       </c>
       <c r="N23">
-        <v>8.145413551797466</v>
+        <v>6.598546603859845</v>
       </c>
       <c r="O23">
-        <v>15.96572193685654</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.41398579146379</v>
+        <v>8.375933354676325</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.66652396986188</v>
+      </c>
+      <c r="R23">
+        <v>12.41190936015147</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.39379456191376</v>
+        <v>23.57477051305417</v>
       </c>
       <c r="C24">
-        <v>16.01717679300218</v>
+        <v>16.55804947582431</v>
       </c>
       <c r="D24">
-        <v>4.465085630111874</v>
+        <v>4.588683047623602</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30.1833594343875</v>
+        <v>28.55260704350184</v>
       </c>
       <c r="G24">
-        <v>40.57330427189937</v>
+        <v>37.82288822965376</v>
       </c>
       <c r="H24">
-        <v>2.033183807597144</v>
+        <v>2.003020439601045</v>
       </c>
       <c r="I24">
-        <v>2.590819625185077</v>
+        <v>2.546722073708421</v>
       </c>
       <c r="J24">
-        <v>12.45186345873336</v>
+        <v>12.04789287890615</v>
       </c>
       <c r="K24">
-        <v>19.02796005305199</v>
+        <v>17.69407125582742</v>
       </c>
       <c r="L24">
-        <v>6.551626825570725</v>
+        <v>14.02707959085633</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.32290618558303</v>
       </c>
       <c r="N24">
-        <v>7.849529171844827</v>
+        <v>6.498240762076812</v>
       </c>
       <c r="O24">
-        <v>15.05233965219329</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.6706871369309</v>
+        <v>8.081162460200254</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.85156862337934</v>
+      </c>
+      <c r="R24">
+        <v>12.60732369390599</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.18949440115823</v>
+        <v>21.49051126291442</v>
       </c>
       <c r="C25">
-        <v>14.59034894585285</v>
+        <v>15.04026807942347</v>
       </c>
       <c r="D25">
-        <v>4.347709894860338</v>
+        <v>4.471093378885698</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>28.83104864887623</v>
+        <v>27.44783018128326</v>
       </c>
       <c r="G25">
-        <v>38.19171970371024</v>
+        <v>35.64297478822524</v>
       </c>
       <c r="H25">
-        <v>2.468890747294909</v>
+        <v>2.398751993562732</v>
       </c>
       <c r="I25">
-        <v>2.951319838437805</v>
+        <v>2.859214896017833</v>
       </c>
       <c r="J25">
-        <v>12.13890291099155</v>
+        <v>11.86901352084645</v>
       </c>
       <c r="K25">
-        <v>18.69783880437143</v>
+        <v>17.53909776108248</v>
       </c>
       <c r="L25">
-        <v>6.421443513744252</v>
+        <v>14.14667956556487</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.8945614403836</v>
       </c>
       <c r="N25">
-        <v>7.520512460574731</v>
+        <v>6.377396177706193</v>
       </c>
       <c r="O25">
-        <v>14.00720060211931</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.95174543393737</v>
+        <v>7.745371417175571</v>
       </c>
       <c r="Q25">
+        <v>13.8350703201438</v>
+      </c>
+      <c r="R25">
+        <v>12.84488881778796</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
